--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2020.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2020.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="199">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>ООО"Стеклозавод "Ведатранзит"</t>
-  </si>
-  <si>
-    <t>" _____ " ______________ 2019 г.</t>
   </si>
   <si>
     <t>Сенкевич В.Н.</t>
@@ -633,6 +630,38 @@
   <si>
     <t>Очистка деталей от графита</t>
   </si>
+  <si>
+    <t>начальник участка ремонта форм</t>
+  </si>
+  <si>
+    <t>Гавриленко А.Д.</t>
+  </si>
+  <si>
+    <t>" _____ " ______________ 2020 г.</t>
+  </si>
+  <si>
+    <r>
+      <t>назначенная приказом (распоряжением) от 30 декабря 2019 г. № 97 произвела проверку состояния предметов, находящихся в подотчете у _________________</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Гавриленко А.Д.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -645,7 +674,7 @@
     <numFmt numFmtId="167" formatCode="0.000;[Red]\-0.000"/>
     <numFmt numFmtId="168" formatCode="0.0;[Red]\-0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -722,6 +751,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1027,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1167,125 +1202,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,8 +1629,8 @@
   </sheetPr>
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A133" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G153"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1608,143 +1640,143 @@
     <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="52" customWidth="1"/>
+    <col min="6" max="6" width="15" style="50" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.140625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="F4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="53" t="s">
-        <v>35</v>
+      <c r="F6" s="51" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="52"/>
+      <c r="F12" s="50"/>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-    </row>
-    <row r="15" spans="1:8" s="48" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-    </row>
-    <row r="16" spans="1:8" s="48" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="54"/>
+      <c r="A14" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:8" s="47" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" spans="1:8" s="47" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="52"/>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1761,7 +1793,7 @@
       <c r="E17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="53" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -1781,7 +1813,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="56"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="13"/>
       <c r="H18" s="27"/>
     </row>
@@ -1816,18 +1848,18 @@
         <v>1</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="78">
+        <v>38</v>
+      </c>
+      <c r="C20" s="58">
         <v>7961</v>
       </c>
-      <c r="D20" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="79">
+      <c r="D20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="59">
         <v>60</v>
       </c>
-      <c r="F20" s="80">
+      <c r="F20" s="60">
         <v>5.76</v>
       </c>
       <c r="G20" s="41">
@@ -1835,7 +1867,7 @@
         <v>345.59999999999997</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1844,18 +1876,18 @@
         <v>2</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="78">
+        <v>110</v>
+      </c>
+      <c r="C21" s="58">
         <v>7962</v>
       </c>
-      <c r="D21" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="79">
+      <c r="D21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="59">
         <v>30</v>
       </c>
-      <c r="F21" s="80">
+      <c r="F21" s="60">
         <v>5.76</v>
       </c>
       <c r="G21" s="41">
@@ -1863,7 +1895,7 @@
         <v>172.79999999999998</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1872,18 +1904,18 @@
         <v>3</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="78">
+        <v>111</v>
+      </c>
+      <c r="C22" s="58">
         <v>7960</v>
       </c>
-      <c r="D22" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="79">
+      <c r="D22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="59">
         <v>30</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="60">
         <v>5.76</v>
       </c>
       <c r="G22" s="41">
@@ -1891,7 +1923,7 @@
         <v>172.79999999999998</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1900,18 +1932,18 @@
         <v>4</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="78">
+        <v>112</v>
+      </c>
+      <c r="C23" s="58">
         <v>6385</v>
       </c>
-      <c r="D23" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="79">
+      <c r="D23" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="59">
         <v>10</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="60">
         <v>5.76</v>
       </c>
       <c r="G23" s="41">
@@ -1919,7 +1951,7 @@
         <v>57.599999999999994</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -1928,18 +1960,18 @@
         <v>5</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="78">
+        <v>112</v>
+      </c>
+      <c r="C24" s="58">
         <v>6385</v>
       </c>
-      <c r="D24" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="79">
+      <c r="D24" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="59">
         <v>30</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="60">
         <v>5.76</v>
       </c>
       <c r="G24" s="41">
@@ -1947,7 +1979,7 @@
         <v>172.79999999999998</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -1956,15 +1988,15 @@
         <v>6</v>
       </c>
       <c r="B25" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="58">
+        <v>9217</v>
+      </c>
+      <c r="D25" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="78">
-        <v>9217</v>
-      </c>
-      <c r="D25" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="77">
+      <c r="E25" s="57">
         <v>10</v>
       </c>
       <c r="F25" s="40">
@@ -1975,7 +2007,7 @@
         <v>10.9</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -1984,26 +2016,25 @@
         <v>7</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="19">
         <v>8783</v>
       </c>
-      <c r="D26" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="82">
+      <c r="D26" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="62">
         <v>4.45</v>
       </c>
-      <c r="F26" s="80">
+      <c r="F26" s="60">
         <v>4.74</v>
       </c>
       <c r="G26" s="41">
-        <f t="shared" si="0"/>
-        <v>21.093000000000004</v>
+        <v>21.1</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2012,18 +2043,18 @@
         <v>8</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="19">
         <v>8873</v>
       </c>
-      <c r="D27" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="79">
+      <c r="D27" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="59">
         <v>1</v>
       </c>
-      <c r="F27" s="80">
+      <c r="F27" s="60">
         <v>18.03</v>
       </c>
       <c r="G27" s="41">
@@ -2031,7 +2062,7 @@
         <v>18.03</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2040,18 +2071,18 @@
         <v>9</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="19">
         <v>8878</v>
       </c>
-      <c r="D28" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="79">
+      <c r="D28" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="59">
         <v>1</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="60">
         <v>35.43</v>
       </c>
       <c r="G28" s="41">
@@ -2059,7 +2090,7 @@
         <v>35.43</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2068,18 +2099,18 @@
         <v>10</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29" s="19">
         <v>4230</v>
       </c>
-      <c r="D29" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="79">
+      <c r="D29" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="59">
         <v>20</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="60">
         <v>31.93</v>
       </c>
       <c r="G29" s="41">
@@ -2087,7 +2118,7 @@
         <v>638.6</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2096,18 +2127,18 @@
         <v>11</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="19">
         <v>4232</v>
       </c>
-      <c r="D30" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="79">
+      <c r="D30" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="59">
         <v>20</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="60">
         <v>31.93</v>
       </c>
       <c r="G30" s="41">
@@ -2115,7 +2146,7 @@
         <v>638.6</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2124,18 +2155,18 @@
         <v>12</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="19">
         <v>4233</v>
       </c>
-      <c r="D31" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="79">
+      <c r="D31" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="59">
         <v>20</v>
       </c>
-      <c r="F31" s="80">
+      <c r="F31" s="60">
         <v>31.93</v>
       </c>
       <c r="G31" s="41">
@@ -2143,7 +2174,7 @@
         <v>638.6</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2152,18 +2183,18 @@
         <v>13</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="19">
         <v>4327</v>
       </c>
-      <c r="D32" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="79">
+      <c r="D32" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="59">
         <v>10</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="60">
         <v>7.49</v>
       </c>
       <c r="G32" s="41">
@@ -2171,7 +2202,7 @@
         <v>74.900000000000006</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2180,18 +2211,18 @@
         <v>14</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="19">
         <v>4327</v>
       </c>
-      <c r="D33" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="79">
+      <c r="D33" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="59">
         <v>10</v>
       </c>
-      <c r="F33" s="80">
+      <c r="F33" s="60">
         <v>7.49</v>
       </c>
       <c r="G33" s="41">
@@ -2199,7 +2230,7 @@
         <v>74.900000000000006</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2208,18 +2239,18 @@
         <v>15</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="19">
         <v>8857</v>
       </c>
-      <c r="D34" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="79">
+      <c r="D34" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="59">
         <v>10</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="60">
         <v>6.51</v>
       </c>
       <c r="G34" s="41">
@@ -2227,7 +2258,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2236,18 +2267,18 @@
         <v>16</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="19">
         <v>8857</v>
       </c>
-      <c r="D35" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="79">
+      <c r="D35" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="59">
         <v>10</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="60">
         <v>6.51</v>
       </c>
       <c r="G35" s="41">
@@ -2255,7 +2286,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2264,18 +2295,18 @@
         <v>17</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="19">
         <v>4328</v>
       </c>
-      <c r="D36" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="79">
+      <c r="D36" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="59">
         <v>10</v>
       </c>
-      <c r="F36" s="80">
+      <c r="F36" s="60">
         <v>9.56</v>
       </c>
       <c r="G36" s="41">
@@ -2283,7 +2314,7 @@
         <v>95.600000000000009</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2292,18 +2323,18 @@
         <v>18</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="19">
         <v>4328</v>
       </c>
-      <c r="D37" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="79">
+      <c r="D37" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="59">
         <v>10</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="60">
         <v>9.56</v>
       </c>
       <c r="G37" s="41">
@@ -2311,7 +2342,7 @@
         <v>95.600000000000009</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2320,18 +2351,18 @@
         <v>19</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="19">
         <v>8858</v>
       </c>
-      <c r="D38" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="79">
+      <c r="D38" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="59">
         <v>10</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="60">
         <v>8.33</v>
       </c>
       <c r="G38" s="41">
@@ -2339,7 +2370,7 @@
         <v>83.3</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2348,18 +2379,18 @@
         <v>20</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="19">
         <v>8858</v>
       </c>
-      <c r="D39" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="79">
+      <c r="D39" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="59">
         <v>10</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="60">
         <v>8.33</v>
       </c>
       <c r="G39" s="41">
@@ -2367,7 +2398,7 @@
         <v>83.3</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2376,18 +2407,18 @@
         <v>21</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="19">
         <v>8859</v>
       </c>
-      <c r="D40" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="79">
+      <c r="D40" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="59">
         <v>10</v>
       </c>
-      <c r="F40" s="80">
+      <c r="F40" s="60">
         <v>10.029999999999999</v>
       </c>
       <c r="G40" s="41">
@@ -2395,7 +2426,7 @@
         <v>100.3</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2404,18 +2435,18 @@
         <v>22</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C41" s="19">
         <v>9302</v>
       </c>
-      <c r="D41" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="79">
+      <c r="D41" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="59">
         <v>5</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F41" s="60">
         <v>7.56</v>
       </c>
       <c r="G41" s="41">
@@ -2423,7 +2454,7 @@
         <v>37.799999999999997</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2432,18 +2463,18 @@
         <v>23</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="19">
         <v>9301</v>
       </c>
-      <c r="D42" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="79">
+      <c r="D42" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="59">
         <v>10</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="60">
         <v>7.8</v>
       </c>
       <c r="G42" s="41">
@@ -2451,7 +2482,7 @@
         <v>78</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2460,18 +2491,18 @@
         <v>24</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="19">
         <v>9308</v>
       </c>
-      <c r="D43" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="79">
+      <c r="D43" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="59">
         <v>1</v>
       </c>
-      <c r="F43" s="80">
+      <c r="F43" s="60">
         <v>41.74</v>
       </c>
       <c r="G43" s="41">
@@ -2479,7 +2510,7 @@
         <v>41.74</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2488,18 +2519,18 @@
         <v>25</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="19">
         <v>9309</v>
       </c>
-      <c r="D44" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="79">
+      <c r="D44" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="59">
         <v>1</v>
       </c>
-      <c r="F44" s="80">
+      <c r="F44" s="60">
         <v>43.03</v>
       </c>
       <c r="G44" s="41">
@@ -2507,7 +2538,7 @@
         <v>43.03</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2516,18 +2547,18 @@
         <v>26</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="19">
         <v>8855</v>
       </c>
-      <c r="D45" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="79">
+      <c r="D45" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="59">
         <v>10</v>
       </c>
-      <c r="F45" s="80">
+      <c r="F45" s="60">
         <v>3.66</v>
       </c>
       <c r="G45" s="41">
@@ -2535,7 +2566,7 @@
         <v>36.6</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2544,18 +2575,18 @@
         <v>27</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="19">
         <v>8855</v>
       </c>
-      <c r="D46" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="79">
+      <c r="D46" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="59">
         <v>10</v>
       </c>
-      <c r="F46" s="80">
+      <c r="F46" s="60">
         <v>3.66</v>
       </c>
       <c r="G46" s="41">
@@ -2563,7 +2594,7 @@
         <v>36.6</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2572,18 +2603,18 @@
         <v>28</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="19">
         <v>8856</v>
       </c>
-      <c r="D47" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="79">
+      <c r="D47" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="59">
         <v>10</v>
       </c>
-      <c r="F47" s="80">
+      <c r="F47" s="60">
         <v>3.66</v>
       </c>
       <c r="G47" s="41">
@@ -2591,7 +2622,7 @@
         <v>36.6</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2600,18 +2631,18 @@
         <v>29</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="19">
         <v>8856</v>
       </c>
-      <c r="D48" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="79">
+      <c r="D48" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="59">
         <v>10</v>
       </c>
-      <c r="F48" s="80">
+      <c r="F48" s="60">
         <v>3.66</v>
       </c>
       <c r="G48" s="41">
@@ -2619,7 +2650,7 @@
         <v>36.6</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2628,18 +2659,18 @@
         <v>30</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="19">
         <v>5801</v>
       </c>
-      <c r="D49" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="79">
+      <c r="D49" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="59">
         <v>10</v>
       </c>
-      <c r="F49" s="80">
+      <c r="F49" s="60">
         <v>3.66</v>
       </c>
       <c r="G49" s="41">
@@ -2647,7 +2678,7 @@
         <v>36.6</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2656,18 +2687,18 @@
         <v>31</v>
       </c>
       <c r="B50" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="19">
         <v>5802</v>
       </c>
-      <c r="D50" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="79">
+      <c r="D50" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="59">
         <v>10</v>
       </c>
-      <c r="F50" s="80">
+      <c r="F50" s="60">
         <v>3.66</v>
       </c>
       <c r="G50" s="41">
@@ -2675,7 +2706,7 @@
         <v>36.6</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2684,18 +2715,18 @@
         <v>32</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="19">
         <v>4324</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="79">
+      <c r="D51" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="59">
         <v>10</v>
       </c>
-      <c r="F51" s="80">
+      <c r="F51" s="60">
         <v>3.66</v>
       </c>
       <c r="G51" s="41">
@@ -2703,7 +2734,7 @@
         <v>36.6</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2712,18 +2743,18 @@
         <v>33</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="19">
         <v>7737</v>
       </c>
-      <c r="D52" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="79">
+      <c r="D52" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="59">
         <v>10</v>
       </c>
-      <c r="F52" s="80">
+      <c r="F52" s="60">
         <v>5.0599999999999996</v>
       </c>
       <c r="G52" s="41">
@@ -2731,7 +2762,7 @@
         <v>50.599999999999994</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2740,18 +2771,18 @@
         <v>34</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="19">
         <v>7736</v>
       </c>
-      <c r="D53" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="79">
+      <c r="D53" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="59">
         <v>10</v>
       </c>
-      <c r="F53" s="80">
+      <c r="F53" s="60">
         <v>5.0599999999999996</v>
       </c>
       <c r="G53" s="41">
@@ -2759,7 +2790,7 @@
         <v>50.599999999999994</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -2768,18 +2799,18 @@
         <v>35</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="19">
         <v>5809</v>
       </c>
-      <c r="D54" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="79">
+      <c r="D54" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="59">
         <v>2</v>
       </c>
-      <c r="F54" s="80">
+      <c r="F54" s="60">
         <v>17.14</v>
       </c>
       <c r="G54" s="41">
@@ -2787,7 +2818,7 @@
         <v>34.28</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -2796,18 +2827,18 @@
         <v>36</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="19">
         <v>5810</v>
       </c>
-      <c r="D55" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="79">
+      <c r="D55" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="59">
         <v>2</v>
       </c>
-      <c r="F55" s="80">
+      <c r="F55" s="60">
         <v>20.98</v>
       </c>
       <c r="G55" s="41">
@@ -2815,7 +2846,7 @@
         <v>41.96</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -2824,18 +2855,18 @@
         <v>37</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="19">
         <v>5816</v>
       </c>
-      <c r="D56" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="79">
+      <c r="D56" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="59">
         <v>2</v>
       </c>
-      <c r="F56" s="80">
+      <c r="F56" s="60">
         <v>24.84</v>
       </c>
       <c r="G56" s="41">
@@ -2843,7 +2874,7 @@
         <v>49.68</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2852,18 +2883,18 @@
         <v>38</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" s="19">
         <v>9311</v>
       </c>
-      <c r="D57" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="79">
+      <c r="D57" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="59">
         <v>1</v>
       </c>
-      <c r="F57" s="80">
+      <c r="F57" s="60">
         <v>31.84</v>
       </c>
       <c r="G57" s="41">
@@ -2871,7 +2902,7 @@
         <v>31.84</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2880,18 +2911,18 @@
         <v>39</v>
       </c>
       <c r="B58" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" s="19">
         <v>5811</v>
       </c>
-      <c r="D58" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="79">
+      <c r="D58" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="59">
         <v>2</v>
       </c>
-      <c r="F58" s="80">
+      <c r="F58" s="60">
         <v>29.69</v>
       </c>
       <c r="G58" s="41">
@@ -2899,7 +2930,7 @@
         <v>59.38</v>
       </c>
       <c r="H58" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2908,18 +2939,18 @@
         <v>40</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" s="19">
         <v>9305</v>
       </c>
-      <c r="D59" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="79">
+      <c r="D59" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="59">
         <v>1</v>
       </c>
-      <c r="F59" s="80">
+      <c r="F59" s="60">
         <v>3.8</v>
       </c>
       <c r="G59" s="41">
@@ -2927,7 +2958,7 @@
         <v>3.8</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -2936,18 +2967,18 @@
         <v>41</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="19">
         <v>5815</v>
       </c>
-      <c r="D60" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E60" s="79">
+      <c r="D60" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="59">
         <v>10</v>
       </c>
-      <c r="F60" s="80">
+      <c r="F60" s="60">
         <v>4.29</v>
       </c>
       <c r="G60" s="41">
@@ -2955,7 +2986,7 @@
         <v>42.9</v>
       </c>
       <c r="H60" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -2964,18 +2995,18 @@
         <v>42</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="19">
         <v>5776</v>
       </c>
-      <c r="D61" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E61" s="79">
+      <c r="D61" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="59">
         <v>2</v>
       </c>
-      <c r="F61" s="80">
+      <c r="F61" s="60">
         <v>6.9</v>
       </c>
       <c r="G61" s="41">
@@ -2983,7 +3014,7 @@
         <v>13.8</v>
       </c>
       <c r="H61" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -2992,18 +3023,18 @@
         <v>43</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="19">
         <v>5774</v>
       </c>
-      <c r="D62" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="79">
+      <c r="D62" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="59">
         <v>2</v>
       </c>
-      <c r="F62" s="80">
+      <c r="F62" s="60">
         <v>6.9</v>
       </c>
       <c r="G62" s="41">
@@ -3011,7 +3042,7 @@
         <v>13.8</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3020,18 +3051,18 @@
         <v>44</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="19">
         <v>5775</v>
       </c>
-      <c r="D63" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E63" s="79">
+      <c r="D63" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="59">
         <v>2</v>
       </c>
-      <c r="F63" s="80">
+      <c r="F63" s="60">
         <v>6.9</v>
       </c>
       <c r="G63" s="41">
@@ -3039,7 +3070,7 @@
         <v>13.8</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3048,18 +3079,18 @@
         <v>45</v>
       </c>
       <c r="B64" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64" s="19">
         <v>5777</v>
       </c>
-      <c r="D64" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="79">
+      <c r="D64" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="59">
         <v>2</v>
       </c>
-      <c r="F64" s="80">
+      <c r="F64" s="60">
         <v>6.9</v>
       </c>
       <c r="G64" s="41">
@@ -3067,7 +3098,7 @@
         <v>13.8</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3076,18 +3107,18 @@
         <v>46</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="19">
         <v>8867</v>
       </c>
-      <c r="D65" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="79">
+      <c r="D65" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="59">
         <v>5</v>
       </c>
-      <c r="F65" s="80">
+      <c r="F65" s="60">
         <v>1.74</v>
       </c>
       <c r="G65" s="41">
@@ -3095,7 +3126,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3104,18 +3135,18 @@
         <v>47</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" s="19">
         <v>9298</v>
       </c>
-      <c r="D66" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="79">
+      <c r="D66" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="59">
         <v>5</v>
       </c>
-      <c r="F66" s="80">
+      <c r="F66" s="60">
         <v>3.71</v>
       </c>
       <c r="G66" s="41">
@@ -3123,7 +3154,7 @@
         <v>18.55</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3132,18 +3163,18 @@
         <v>48</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" s="19">
         <v>9299</v>
       </c>
-      <c r="D67" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67" s="79">
+      <c r="D67" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="59">
         <v>5</v>
       </c>
-      <c r="F67" s="80">
+      <c r="F67" s="60">
         <v>4.46</v>
       </c>
       <c r="G67" s="41">
@@ -3151,7 +3182,7 @@
         <v>22.3</v>
       </c>
       <c r="H67" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3160,18 +3191,18 @@
         <v>49</v>
       </c>
       <c r="B68" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="19">
         <v>5736</v>
       </c>
-      <c r="D68" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" s="83">
+      <c r="D68" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="63">
         <v>2E-3</v>
       </c>
-      <c r="F68" s="84">
+      <c r="F68" s="64">
         <v>1995.33</v>
       </c>
       <c r="G68" s="41">
@@ -3179,7 +3210,7 @@
         <v>3.9906600000000001</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3188,18 +3219,18 @@
         <v>50</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="19">
         <v>5737</v>
       </c>
-      <c r="D69" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" s="83">
+      <c r="D69" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="63">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F69" s="84">
+      <c r="F69" s="64">
         <v>1995</v>
       </c>
       <c r="G69" s="41">
@@ -3207,7 +3238,7 @@
         <v>7.98</v>
       </c>
       <c r="H69" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3216,18 +3247,18 @@
         <v>51</v>
       </c>
       <c r="B70" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="19">
         <v>5738</v>
       </c>
-      <c r="D70" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" s="82">
+      <c r="D70" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="62">
         <v>0.02</v>
       </c>
-      <c r="F70" s="84">
+      <c r="F70" s="64">
         <v>1995</v>
       </c>
       <c r="G70" s="41">
@@ -3235,7 +3266,7 @@
         <v>39.9</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3244,18 +3275,18 @@
         <v>52</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" s="19">
         <v>5739</v>
       </c>
-      <c r="D71" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="83">
+      <c r="D71" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="63">
         <v>0.02</v>
       </c>
-      <c r="F71" s="84">
+      <c r="F71" s="64">
         <v>1995.05</v>
       </c>
       <c r="G71" s="41">
@@ -3263,7 +3294,7 @@
         <v>39.901000000000003</v>
       </c>
       <c r="H71" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3272,18 +3303,18 @@
         <v>53</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C72" s="19">
         <v>5740</v>
       </c>
-      <c r="D72" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" s="82">
+      <c r="D72" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="62">
         <v>0.03</v>
       </c>
-      <c r="F72" s="84">
+      <c r="F72" s="64">
         <v>1995</v>
       </c>
       <c r="G72" s="41">
@@ -3291,7 +3322,7 @@
         <v>59.849999999999994</v>
       </c>
       <c r="H72" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3300,18 +3331,18 @@
         <v>54</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="19">
         <v>5808</v>
       </c>
-      <c r="D73" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="79">
+      <c r="D73" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="59">
         <v>10</v>
       </c>
-      <c r="F73" s="80">
+      <c r="F73" s="60">
         <v>3.8</v>
       </c>
       <c r="G73" s="41">
@@ -3319,7 +3350,7 @@
         <v>38</v>
       </c>
       <c r="H73" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3328,18 +3359,18 @@
         <v>55</v>
       </c>
       <c r="B74" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="19">
         <v>7380</v>
       </c>
-      <c r="D74" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="79">
+      <c r="D74" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="59">
         <v>1</v>
       </c>
-      <c r="F74" s="80">
+      <c r="F74" s="60">
         <v>3.42</v>
       </c>
       <c r="G74" s="41">
@@ -3347,7 +3378,7 @@
         <v>3.42</v>
       </c>
       <c r="H74" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3356,18 +3387,18 @@
         <v>56</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" s="19">
         <v>8862</v>
       </c>
-      <c r="D75" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="79">
+      <c r="D75" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="59">
         <v>2</v>
       </c>
-      <c r="F75" s="80">
+      <c r="F75" s="60">
         <v>4.66</v>
       </c>
       <c r="G75" s="41">
@@ -3375,7 +3406,7 @@
         <v>9.32</v>
       </c>
       <c r="H75" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3384,18 +3415,18 @@
         <v>57</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C76" s="19">
         <v>8864</v>
       </c>
-      <c r="D76" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="79">
+      <c r="D76" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="59">
         <v>2</v>
       </c>
-      <c r="F76" s="80">
+      <c r="F76" s="60">
         <v>5.88</v>
       </c>
       <c r="G76" s="41">
@@ -3403,7 +3434,7 @@
         <v>11.76</v>
       </c>
       <c r="H76" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3412,18 +3443,18 @@
         <v>58</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C77" s="19">
         <v>8860</v>
       </c>
-      <c r="D77" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="79">
+      <c r="D77" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="59">
         <v>2</v>
       </c>
-      <c r="F77" s="80">
+      <c r="F77" s="60">
         <v>7.09</v>
       </c>
       <c r="G77" s="41">
@@ -3431,7 +3462,7 @@
         <v>14.18</v>
       </c>
       <c r="H77" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3440,18 +3471,18 @@
         <v>59</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C78" s="19">
         <v>8861</v>
       </c>
-      <c r="D78" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="79">
+      <c r="D78" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="59">
         <v>2</v>
       </c>
-      <c r="F78" s="80">
+      <c r="F78" s="60">
         <v>8.08</v>
       </c>
       <c r="G78" s="41">
@@ -3459,7 +3490,7 @@
         <v>16.16</v>
       </c>
       <c r="H78" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3468,18 +3499,18 @@
         <v>60</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="19">
         <v>7744</v>
       </c>
-      <c r="D79" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79" s="79">
+      <c r="D79" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="59">
         <v>2</v>
       </c>
-      <c r="F79" s="80">
+      <c r="F79" s="60">
         <v>9.98</v>
       </c>
       <c r="G79" s="41">
@@ -3487,7 +3518,7 @@
         <v>19.96</v>
       </c>
       <c r="H79" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3496,18 +3527,18 @@
         <v>61</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" s="19">
         <v>6272</v>
       </c>
-      <c r="D80" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="79">
+      <c r="D80" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="59">
         <v>4</v>
       </c>
-      <c r="F80" s="80">
+      <c r="F80" s="60">
         <v>130</v>
       </c>
       <c r="G80" s="41">
@@ -3515,7 +3546,7 @@
         <v>520</v>
       </c>
       <c r="H80" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3524,18 +3555,18 @@
         <v>62</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C81" s="19">
         <v>7200</v>
       </c>
-      <c r="D81" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E81" s="79">
+      <c r="D81" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="59">
         <v>1</v>
       </c>
-      <c r="F81" s="80">
+      <c r="F81" s="60">
         <v>2.89</v>
       </c>
       <c r="G81" s="41">
@@ -3543,7 +3574,7 @@
         <v>2.89</v>
       </c>
       <c r="H81" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3552,18 +3583,18 @@
         <v>63</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="19">
         <v>7201</v>
       </c>
-      <c r="D82" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="79">
+      <c r="D82" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="59">
         <v>2</v>
       </c>
-      <c r="F82" s="80">
+      <c r="F82" s="60">
         <v>3.88</v>
       </c>
       <c r="G82" s="41">
@@ -3571,7 +3602,7 @@
         <v>7.76</v>
       </c>
       <c r="H82" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3580,18 +3611,18 @@
         <v>64</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="19">
         <v>7670</v>
       </c>
-      <c r="D83" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83" s="79">
+      <c r="D83" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="59">
         <v>2</v>
       </c>
-      <c r="F83" s="80">
+      <c r="F83" s="60">
         <v>8.0500000000000007</v>
       </c>
       <c r="G83" s="41">
@@ -3599,7 +3630,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="H83" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,18 +3639,18 @@
         <v>65</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C84" s="19">
         <v>7202</v>
       </c>
-      <c r="D84" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E84" s="79">
+      <c r="D84" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="59">
         <v>2</v>
       </c>
-      <c r="F84" s="80">
+      <c r="F84" s="60">
         <v>5.85</v>
       </c>
       <c r="G84" s="41">
@@ -3627,7 +3658,7 @@
         <v>11.7</v>
       </c>
       <c r="H84" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3636,18 +3667,18 @@
         <v>66</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="19">
         <v>7203</v>
       </c>
-      <c r="D85" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85" s="79">
+      <c r="D85" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="59">
         <v>2</v>
       </c>
-      <c r="F85" s="80">
+      <c r="F85" s="60">
         <v>14.82</v>
       </c>
       <c r="G85" s="41">
@@ -3655,7 +3686,7 @@
         <v>29.64</v>
       </c>
       <c r="H85" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3664,18 +3695,18 @@
         <v>67</v>
       </c>
       <c r="B86" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C86" s="19">
         <v>7204</v>
       </c>
-      <c r="D86" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="79">
+      <c r="D86" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="59">
         <v>2</v>
       </c>
-      <c r="F86" s="80">
+      <c r="F86" s="60">
         <v>1.26</v>
       </c>
       <c r="G86" s="41">
@@ -3683,7 +3714,7 @@
         <v>2.52</v>
       </c>
       <c r="H86" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3692,18 +3723,18 @@
         <v>68</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" s="19">
         <v>7205</v>
       </c>
-      <c r="D87" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="79">
+      <c r="D87" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="59">
         <v>2</v>
       </c>
-      <c r="F87" s="80">
+      <c r="F87" s="60">
         <v>2.48</v>
       </c>
       <c r="G87" s="41">
@@ -3711,7 +3742,7 @@
         <v>4.96</v>
       </c>
       <c r="H87" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3720,18 +3751,18 @@
         <v>69</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C88" s="19">
         <v>7671</v>
       </c>
-      <c r="D88" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E88" s="79">
+      <c r="D88" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="59">
         <v>2</v>
       </c>
-      <c r="F88" s="80">
+      <c r="F88" s="60">
         <v>5.35</v>
       </c>
       <c r="G88" s="41">
@@ -3739,7 +3770,7 @@
         <v>10.7</v>
       </c>
       <c r="H88" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3748,18 +3779,18 @@
         <v>70</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C89" s="19">
         <v>7206</v>
       </c>
-      <c r="D89" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="79">
+      <c r="D89" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="59">
         <v>2</v>
       </c>
-      <c r="F89" s="80">
+      <c r="F89" s="60">
         <v>3.9</v>
       </c>
       <c r="G89" s="41">
@@ -3767,7 +3798,7 @@
         <v>7.8</v>
       </c>
       <c r="H89" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3776,18 +3807,18 @@
         <v>71</v>
       </c>
       <c r="B90" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C90" s="19">
         <v>7207</v>
       </c>
-      <c r="D90" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E90" s="79">
+      <c r="D90" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="59">
         <v>2</v>
       </c>
-      <c r="F90" s="80">
+      <c r="F90" s="60">
         <v>4.2</v>
       </c>
       <c r="G90" s="41">
@@ -3795,7 +3826,7 @@
         <v>8.4</v>
       </c>
       <c r="H90" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -3804,18 +3835,18 @@
         <v>72</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C91" s="19">
         <v>7208</v>
       </c>
-      <c r="D91" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="79">
+      <c r="D91" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="59">
         <v>2</v>
       </c>
-      <c r="F91" s="80">
+      <c r="F91" s="60">
         <v>8.14</v>
       </c>
       <c r="G91" s="41">
@@ -3823,7 +3854,7 @@
         <v>16.28</v>
       </c>
       <c r="H91" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3832,18 +3863,18 @@
         <v>73</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C92" s="19">
         <v>6889</v>
       </c>
-      <c r="D92" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E92" s="79">
+      <c r="D92" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="59">
         <v>2</v>
       </c>
-      <c r="F92" s="80">
+      <c r="F92" s="60">
         <v>11.12</v>
       </c>
       <c r="G92" s="41">
@@ -3851,7 +3882,7 @@
         <v>22.24</v>
       </c>
       <c r="H92" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3860,18 +3891,18 @@
         <v>74</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C93" s="19">
         <v>6905</v>
       </c>
-      <c r="D93" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93" s="79">
+      <c r="D93" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="59">
         <v>2</v>
       </c>
-      <c r="F93" s="80">
+      <c r="F93" s="60">
         <v>11.64</v>
       </c>
       <c r="G93" s="41">
@@ -3879,7 +3910,7 @@
         <v>23.28</v>
       </c>
       <c r="H93" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3888,18 +3919,18 @@
         <v>75</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" s="19">
         <v>6892</v>
       </c>
-      <c r="D94" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E94" s="79">
+      <c r="D94" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="59">
         <v>2</v>
       </c>
-      <c r="F94" s="80">
+      <c r="F94" s="60">
         <v>12.06</v>
       </c>
       <c r="G94" s="41">
@@ -3907,7 +3938,7 @@
         <v>24.12</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3916,18 +3947,18 @@
         <v>76</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" s="19">
         <v>3619</v>
       </c>
-      <c r="D95" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E95" s="79">
+      <c r="D95" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="59">
         <v>2</v>
       </c>
-      <c r="F95" s="80">
+      <c r="F95" s="60">
         <v>3.05</v>
       </c>
       <c r="G95" s="41">
@@ -3935,7 +3966,7 @@
         <v>6.1</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3944,18 +3975,18 @@
         <v>77</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" s="19">
         <v>6902</v>
       </c>
-      <c r="D96" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E96" s="79">
+      <c r="D96" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="59">
         <v>2</v>
       </c>
-      <c r="F96" s="80">
+      <c r="F96" s="60">
         <v>16.87</v>
       </c>
       <c r="G96" s="41">
@@ -3963,7 +3994,7 @@
         <v>33.74</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -3972,18 +4003,18 @@
         <v>78</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C97" s="19">
         <v>6899</v>
       </c>
-      <c r="D97" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" s="79">
+      <c r="D97" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="59">
         <v>2</v>
       </c>
-      <c r="F97" s="80">
+      <c r="F97" s="60">
         <v>11.13</v>
       </c>
       <c r="G97" s="41">
@@ -3991,7 +4022,7 @@
         <v>22.26</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4000,18 +4031,18 @@
         <v>79</v>
       </c>
       <c r="B98" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" s="19">
         <v>6895</v>
       </c>
-      <c r="D98" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E98" s="79">
+      <c r="D98" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="59">
         <v>2</v>
       </c>
-      <c r="F98" s="80">
+      <c r="F98" s="60">
         <v>19.850000000000001</v>
       </c>
       <c r="G98" s="41">
@@ -4019,7 +4050,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="H98" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4028,18 +4059,18 @@
         <v>80</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" s="19">
         <v>6894</v>
       </c>
-      <c r="D99" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E99" s="79">
+      <c r="D99" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="59">
         <v>2</v>
       </c>
-      <c r="F99" s="80">
+      <c r="F99" s="60">
         <v>19.850000000000001</v>
       </c>
       <c r="G99" s="41">
@@ -4047,7 +4078,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4056,18 +4087,18 @@
         <v>81</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C100" s="19">
         <v>6896</v>
       </c>
-      <c r="D100" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" s="79">
+      <c r="D100" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="59">
         <v>2</v>
       </c>
-      <c r="F100" s="80">
+      <c r="F100" s="60">
         <v>12.42</v>
       </c>
       <c r="G100" s="41">
@@ -4075,7 +4106,7 @@
         <v>24.84</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4084,18 +4115,18 @@
         <v>82</v>
       </c>
       <c r="B101" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C101" s="19">
         <v>6344</v>
       </c>
-      <c r="D101" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E101" s="79">
+      <c r="D101" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="59">
         <v>5</v>
       </c>
-      <c r="F101" s="80">
+      <c r="F101" s="60">
         <v>244.47</v>
       </c>
       <c r="G101" s="41">
@@ -4103,7 +4134,7 @@
         <v>1222.3499999999999</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4112,18 +4143,18 @@
         <v>83</v>
       </c>
       <c r="B102" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102" s="19">
         <v>9532</v>
       </c>
-      <c r="D102" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="E102" s="85">
+      <c r="D102" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="65">
         <v>3</v>
       </c>
-      <c r="F102" s="80">
+      <c r="F102" s="60">
         <v>1.45</v>
       </c>
       <c r="G102" s="41">
@@ -4131,7 +4162,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4140,18 +4171,18 @@
         <v>84</v>
       </c>
       <c r="B103" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C103" s="19">
         <v>7379</v>
       </c>
-      <c r="D103" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E103" s="79">
+      <c r="D103" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="59">
         <v>2</v>
       </c>
-      <c r="F103" s="80">
+      <c r="F103" s="60">
         <v>16.39</v>
       </c>
       <c r="G103" s="41">
@@ -4159,7 +4190,7 @@
         <v>32.78</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4168,18 +4199,18 @@
         <v>85</v>
       </c>
       <c r="B104" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104" s="19">
         <v>6626</v>
       </c>
-      <c r="D104" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="79">
+      <c r="D104" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="59">
         <v>1</v>
       </c>
-      <c r="F104" s="80">
+      <c r="F104" s="60">
         <v>12.11</v>
       </c>
       <c r="G104" s="41">
@@ -4187,7 +4218,7 @@
         <v>12.11</v>
       </c>
       <c r="H104" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4196,18 +4227,18 @@
         <v>86</v>
       </c>
       <c r="B105" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105" s="19">
         <v>6618</v>
       </c>
-      <c r="D105" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" s="79">
+      <c r="D105" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="59">
         <v>2</v>
       </c>
-      <c r="F105" s="80">
+      <c r="F105" s="60">
         <v>0.35</v>
       </c>
       <c r="G105" s="41">
@@ -4215,7 +4246,7 @@
         <v>0.7</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4224,18 +4255,18 @@
         <v>87</v>
       </c>
       <c r="B106" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C106" s="19">
         <v>6619</v>
       </c>
-      <c r="D106" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" s="79">
+      <c r="D106" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="59">
         <v>2</v>
       </c>
-      <c r="F106" s="80">
+      <c r="F106" s="60">
         <v>0.65</v>
       </c>
       <c r="G106" s="41">
@@ -4243,7 +4274,7 @@
         <v>1.3</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4252,18 +4283,18 @@
         <v>88</v>
       </c>
       <c r="B107" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" s="19">
         <v>6620</v>
       </c>
-      <c r="D107" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E107" s="79">
+      <c r="D107" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="59">
         <v>2</v>
       </c>
-      <c r="F107" s="80">
+      <c r="F107" s="60">
         <v>0.76</v>
       </c>
       <c r="G107" s="41">
@@ -4271,7 +4302,7 @@
         <v>1.52</v>
       </c>
       <c r="H107" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4280,18 +4311,18 @@
         <v>89</v>
       </c>
       <c r="B108" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C108" s="19">
         <v>6624</v>
       </c>
-      <c r="D108" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" s="79">
+      <c r="D108" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="59">
         <v>1</v>
       </c>
-      <c r="F108" s="80">
+      <c r="F108" s="60">
         <v>1.66</v>
       </c>
       <c r="G108" s="41">
@@ -4299,7 +4330,7 @@
         <v>1.66</v>
       </c>
       <c r="H108" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,18 +4339,18 @@
         <v>90</v>
       </c>
       <c r="B109" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C109" s="19">
         <v>7336</v>
       </c>
-      <c r="D109" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109" s="79">
+      <c r="D109" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="59">
         <v>1</v>
       </c>
-      <c r="F109" s="80">
+      <c r="F109" s="60">
         <v>3.5</v>
       </c>
       <c r="G109" s="41">
@@ -4327,7 +4358,7 @@
         <v>3.5</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4336,18 +4367,18 @@
         <v>91</v>
       </c>
       <c r="B110" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C110" s="19">
         <v>7337</v>
       </c>
-      <c r="D110" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="79">
+      <c r="D110" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="59">
         <v>1</v>
       </c>
-      <c r="F110" s="80">
+      <c r="F110" s="60">
         <v>6.56</v>
       </c>
       <c r="G110" s="41">
@@ -4355,7 +4386,7 @@
         <v>6.56</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4364,18 +4395,18 @@
         <v>92</v>
       </c>
       <c r="B111" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C111" s="19">
         <v>6627</v>
       </c>
-      <c r="D111" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="79">
+      <c r="D111" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="59">
         <v>1</v>
       </c>
-      <c r="F111" s="80">
+      <c r="F111" s="60">
         <v>3.58</v>
       </c>
       <c r="G111" s="41">
@@ -4383,7 +4414,7 @@
         <v>3.58</v>
       </c>
       <c r="H111" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4392,18 +4423,18 @@
         <v>93</v>
       </c>
       <c r="B112" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C112" s="19">
         <v>6628</v>
       </c>
-      <c r="D112" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="79">
+      <c r="D112" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="59">
         <v>1</v>
       </c>
-      <c r="F112" s="80">
+      <c r="F112" s="60">
         <v>5.16</v>
       </c>
       <c r="G112" s="41">
@@ -4411,7 +4442,7 @@
         <v>5.16</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4420,18 +4451,18 @@
         <v>94</v>
       </c>
       <c r="B113" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C113" s="19">
         <v>6629</v>
       </c>
-      <c r="D113" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="79">
+      <c r="D113" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="59">
         <v>1</v>
       </c>
-      <c r="F113" s="80">
+      <c r="F113" s="60">
         <v>6</v>
       </c>
       <c r="G113" s="41">
@@ -4439,7 +4470,7 @@
         <v>6</v>
       </c>
       <c r="H113" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4448,18 +4479,18 @@
         <v>95</v>
       </c>
       <c r="B114" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C114" s="19">
         <v>6630</v>
       </c>
-      <c r="D114" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" s="79">
+      <c r="D114" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="59">
         <v>1</v>
       </c>
-      <c r="F114" s="80">
+      <c r="F114" s="60">
         <v>7.82</v>
       </c>
       <c r="G114" s="41">
@@ -4467,7 +4498,7 @@
         <v>7.82</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4476,18 +4507,18 @@
         <v>96</v>
       </c>
       <c r="B115" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C115" s="19">
         <v>6625</v>
       </c>
-      <c r="D115" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E115" s="79">
+      <c r="D115" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="59">
         <v>1</v>
       </c>
-      <c r="F115" s="80">
+      <c r="F115" s="60">
         <v>11.23</v>
       </c>
       <c r="G115" s="41">
@@ -4495,7 +4526,7 @@
         <v>11.23</v>
       </c>
       <c r="H115" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4504,18 +4535,18 @@
         <v>97</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" s="19">
         <v>6623</v>
       </c>
-      <c r="D116" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E116" s="79">
+      <c r="D116" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="59">
         <v>2</v>
       </c>
-      <c r="F116" s="80">
+      <c r="F116" s="60">
         <v>0.76</v>
       </c>
       <c r="G116" s="41">
@@ -4523,7 +4554,7 @@
         <v>1.52</v>
       </c>
       <c r="H116" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4532,18 +4563,18 @@
         <v>98</v>
       </c>
       <c r="B117" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" s="19">
         <v>6621</v>
       </c>
-      <c r="D117" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E117" s="79">
+      <c r="D117" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="59">
         <v>2</v>
       </c>
-      <c r="F117" s="80">
+      <c r="F117" s="60">
         <v>1.0900000000000001</v>
       </c>
       <c r="G117" s="41">
@@ -4551,7 +4582,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="H117" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4560,18 +4591,18 @@
         <v>99</v>
       </c>
       <c r="B118" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C118" s="19">
         <v>6622</v>
       </c>
-      <c r="D118" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E118" s="79">
+      <c r="D118" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="59">
         <v>1</v>
       </c>
-      <c r="F118" s="80">
+      <c r="F118" s="60">
         <v>1.66</v>
       </c>
       <c r="G118" s="41">
@@ -4579,7 +4610,7 @@
         <v>1.66</v>
       </c>
       <c r="H118" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4588,18 +4619,18 @@
         <v>100</v>
       </c>
       <c r="B119" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C119" s="19">
         <v>5647</v>
       </c>
-      <c r="D119" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" s="79">
+      <c r="D119" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="59">
         <v>1</v>
       </c>
-      <c r="F119" s="80">
+      <c r="F119" s="60">
         <v>9.19</v>
       </c>
       <c r="G119" s="41">
@@ -4607,7 +4638,7 @@
         <v>9.19</v>
       </c>
       <c r="H119" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4616,18 +4647,18 @@
         <v>101</v>
       </c>
       <c r="B120" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C120" s="19">
         <v>9300</v>
       </c>
-      <c r="D120" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" s="79">
+      <c r="D120" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="59">
         <v>1</v>
       </c>
-      <c r="F120" s="80">
+      <c r="F120" s="60">
         <v>16.39</v>
       </c>
       <c r="G120" s="41">
@@ -4635,7 +4666,7 @@
         <v>16.39</v>
       </c>
       <c r="H120" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4644,18 +4675,18 @@
         <v>102</v>
       </c>
       <c r="B121" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C121" s="19">
         <v>9300</v>
       </c>
-      <c r="D121" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" s="79">
+      <c r="D121" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="59">
         <v>1</v>
       </c>
-      <c r="F121" s="80">
+      <c r="F121" s="60">
         <v>16.39</v>
       </c>
       <c r="G121" s="41">
@@ -4663,7 +4694,7 @@
         <v>16.39</v>
       </c>
       <c r="H121" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4672,18 +4703,18 @@
         <v>103</v>
       </c>
       <c r="B122" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C122" s="19">
         <v>7383</v>
       </c>
-      <c r="D122" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122" s="79">
+      <c r="D122" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="59">
         <v>1</v>
       </c>
-      <c r="F122" s="80">
+      <c r="F122" s="60">
         <v>13.78</v>
       </c>
       <c r="G122" s="41">
@@ -4691,7 +4722,7 @@
         <v>13.78</v>
       </c>
       <c r="H122" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4700,18 +4731,18 @@
         <v>104</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C123" s="19">
         <v>1236</v>
       </c>
-      <c r="D123" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E123" s="79">
+      <c r="D123" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="59">
         <v>1</v>
       </c>
-      <c r="F123" s="80">
+      <c r="F123" s="60">
         <v>6.5</v>
       </c>
       <c r="G123" s="41">
@@ -4719,7 +4750,7 @@
         <v>6.5</v>
       </c>
       <c r="H123" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4728,18 +4759,18 @@
         <v>105</v>
       </c>
       <c r="B124" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" s="19">
         <v>6890</v>
       </c>
-      <c r="D124" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E124" s="79">
+      <c r="D124" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="59">
         <v>2</v>
       </c>
-      <c r="F124" s="80">
+      <c r="F124" s="60">
         <v>10.91</v>
       </c>
       <c r="G124" s="41">
@@ -4747,7 +4778,7 @@
         <v>21.82</v>
       </c>
       <c r="H124" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4756,18 +4787,18 @@
         <v>106</v>
       </c>
       <c r="B125" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C125" s="19">
         <v>6900</v>
       </c>
-      <c r="D125" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125" s="79">
+      <c r="D125" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="59">
         <v>2</v>
       </c>
-      <c r="F125" s="80">
+      <c r="F125" s="60">
         <v>10.91</v>
       </c>
       <c r="G125" s="41">
@@ -4775,7 +4806,7 @@
         <v>21.82</v>
       </c>
       <c r="H125" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4784,18 +4815,18 @@
         <v>107</v>
       </c>
       <c r="B126" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C126" s="19">
         <v>6897</v>
       </c>
-      <c r="D126" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="79">
+      <c r="D126" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="59">
         <v>2</v>
       </c>
-      <c r="F126" s="80">
+      <c r="F126" s="60">
         <v>10.91</v>
       </c>
       <c r="G126" s="41">
@@ -4803,7 +4834,7 @@
         <v>21.82</v>
       </c>
       <c r="H126" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4812,18 +4843,18 @@
         <v>108</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C127" s="19">
         <v>1956</v>
       </c>
-      <c r="D127" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E127" s="79">
+      <c r="D127" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" s="59">
         <v>1</v>
       </c>
-      <c r="F127" s="80">
+      <c r="F127" s="60">
         <v>2.12</v>
       </c>
       <c r="G127" s="41">
@@ -4831,7 +4862,7 @@
         <v>2.12</v>
       </c>
       <c r="H127" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -4840,18 +4871,18 @@
         <v>109</v>
       </c>
       <c r="B128" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C128" s="19">
         <v>1957</v>
       </c>
-      <c r="D128" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="79">
+      <c r="D128" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="59">
         <v>1</v>
       </c>
-      <c r="F128" s="80">
+      <c r="F128" s="60">
         <v>4.5599999999999996</v>
       </c>
       <c r="G128" s="41">
@@ -4859,7 +4890,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="H128" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -4868,18 +4899,18 @@
         <v>110</v>
       </c>
       <c r="B129" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C129" s="19">
         <v>6636</v>
       </c>
-      <c r="D129" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E129" s="79">
+      <c r="D129" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" s="59">
         <v>1</v>
       </c>
-      <c r="F129" s="80">
+      <c r="F129" s="60">
         <v>10.050000000000001</v>
       </c>
       <c r="G129" s="41">
@@ -4887,7 +4918,7 @@
         <v>10.050000000000001</v>
       </c>
       <c r="H129" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4896,18 +4927,18 @@
         <v>111</v>
       </c>
       <c r="B130" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C130" s="19">
         <v>9303</v>
       </c>
-      <c r="D130" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E130" s="79">
+      <c r="D130" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="59">
         <v>1</v>
       </c>
-      <c r="F130" s="80">
+      <c r="F130" s="60">
         <v>122.06</v>
       </c>
       <c r="G130" s="41">
@@ -4915,7 +4946,7 @@
         <v>122.06</v>
       </c>
       <c r="H130" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4924,18 +4955,18 @@
         <v>112</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C131" s="19">
         <v>6638</v>
       </c>
-      <c r="D131" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E131" s="79">
+      <c r="D131" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="59">
         <v>1</v>
       </c>
-      <c r="F131" s="80">
+      <c r="F131" s="60">
         <v>10.15</v>
       </c>
       <c r="G131" s="41">
@@ -4943,7 +4974,7 @@
         <v>10.15</v>
       </c>
       <c r="H131" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4952,18 +4983,18 @@
         <v>113</v>
       </c>
       <c r="B132" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C132" s="19">
         <v>6639</v>
       </c>
-      <c r="D132" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E132" s="79">
+      <c r="D132" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="59">
         <v>1</v>
       </c>
-      <c r="F132" s="80">
+      <c r="F132" s="60">
         <v>12</v>
       </c>
       <c r="G132" s="41">
@@ -4971,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="H132" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -4980,18 +5011,18 @@
         <v>114</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C133" s="19">
         <v>6640</v>
       </c>
-      <c r="D133" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E133" s="79">
+      <c r="D133" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="59">
         <v>1</v>
       </c>
-      <c r="F133" s="80">
+      <c r="F133" s="60">
         <v>15.2</v>
       </c>
       <c r="G133" s="41">
@@ -4999,7 +5030,7 @@
         <v>15.2</v>
       </c>
       <c r="H133" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5008,18 +5039,18 @@
         <v>115</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C134" s="19">
         <v>6641</v>
       </c>
-      <c r="D134" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E134" s="79">
+      <c r="D134" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="59">
         <v>1</v>
       </c>
-      <c r="F134" s="80">
+      <c r="F134" s="60">
         <v>18.899999999999999</v>
       </c>
       <c r="G134" s="41">
@@ -5027,7 +5058,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="H134" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5036,18 +5067,18 @@
         <v>116</v>
       </c>
       <c r="B135" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C135" s="19">
         <v>6644</v>
       </c>
-      <c r="D135" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" s="79">
+      <c r="D135" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="59">
         <v>1</v>
       </c>
-      <c r="F135" s="80">
+      <c r="F135" s="60">
         <v>13</v>
       </c>
       <c r="G135" s="41">
@@ -5055,7 +5086,7 @@
         <v>13</v>
       </c>
       <c r="H135" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5064,18 +5095,18 @@
         <v>117</v>
       </c>
       <c r="B136" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C136" s="19">
         <v>6642</v>
       </c>
-      <c r="D136" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E136" s="79">
+      <c r="D136" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="59">
         <v>1</v>
       </c>
-      <c r="F136" s="80">
+      <c r="F136" s="60">
         <v>3.74</v>
       </c>
       <c r="G136" s="41">
@@ -5083,7 +5114,7 @@
         <v>3.74</v>
       </c>
       <c r="H136" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5092,18 +5123,18 @@
         <v>118</v>
       </c>
       <c r="B137" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C137" s="19">
         <v>6643</v>
       </c>
-      <c r="D137" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E137" s="79">
+      <c r="D137" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E137" s="59">
         <v>1</v>
       </c>
-      <c r="F137" s="80">
+      <c r="F137" s="60">
         <v>5.99</v>
       </c>
       <c r="G137" s="41">
@@ -5111,7 +5142,7 @@
         <v>5.99</v>
       </c>
       <c r="H137" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5120,18 +5151,18 @@
         <v>119</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C138" s="19">
         <v>6634</v>
       </c>
-      <c r="D138" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E138" s="79">
+      <c r="D138" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" s="59">
         <v>1</v>
       </c>
-      <c r="F138" s="80">
+      <c r="F138" s="60">
         <v>2.5</v>
       </c>
       <c r="G138" s="41">
@@ -5139,7 +5170,7 @@
         <v>2.5</v>
       </c>
       <c r="H138" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,18 +5179,18 @@
         <v>120</v>
       </c>
       <c r="B139" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C139" s="19">
         <v>6635</v>
       </c>
-      <c r="D139" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E139" s="79">
+      <c r="D139" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="59">
         <v>1</v>
       </c>
-      <c r="F139" s="80">
+      <c r="F139" s="60">
         <v>3.2</v>
       </c>
       <c r="G139" s="41">
@@ -5167,7 +5198,7 @@
         <v>3.2</v>
       </c>
       <c r="H139" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5176,18 +5207,18 @@
         <v>121</v>
       </c>
       <c r="B140" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C140" s="78">
+        <v>95</v>
+      </c>
+      <c r="C140" s="58">
         <v>7386</v>
       </c>
-      <c r="D140" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E140" s="79">
+      <c r="D140" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" s="59">
         <v>2</v>
       </c>
-      <c r="F140" s="80">
+      <c r="F140" s="60">
         <v>7</v>
       </c>
       <c r="G140" s="41">
@@ -5195,7 +5226,7 @@
         <v>14</v>
       </c>
       <c r="H140" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5204,18 +5235,18 @@
         <v>122</v>
       </c>
       <c r="B141" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C141" s="78">
+        <v>96</v>
+      </c>
+      <c r="C141" s="58">
         <v>7387</v>
       </c>
-      <c r="D141" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E141" s="79">
+      <c r="D141" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E141" s="59">
         <v>2</v>
       </c>
-      <c r="F141" s="80">
+      <c r="F141" s="60">
         <v>7.6</v>
       </c>
       <c r="G141" s="41">
@@ -5223,7 +5254,7 @@
         <v>15.2</v>
       </c>
       <c r="H141" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5232,18 +5263,18 @@
         <v>123</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C142" s="78">
+        <v>97</v>
+      </c>
+      <c r="C142" s="58">
         <v>7388</v>
       </c>
-      <c r="D142" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E142" s="79">
+      <c r="D142" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" s="59">
         <v>2</v>
       </c>
-      <c r="F142" s="80">
+      <c r="F142" s="60">
         <v>8.5</v>
       </c>
       <c r="G142" s="41">
@@ -5251,7 +5282,7 @@
         <v>17</v>
       </c>
       <c r="H142" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5260,18 +5291,18 @@
         <v>124</v>
       </c>
       <c r="B143" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C143" s="78">
+        <v>98</v>
+      </c>
+      <c r="C143" s="58">
         <v>7389</v>
       </c>
-      <c r="D143" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E143" s="79">
+      <c r="D143" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E143" s="59">
         <v>2</v>
       </c>
-      <c r="F143" s="80">
+      <c r="F143" s="60">
         <v>6.5</v>
       </c>
       <c r="G143" s="41">
@@ -5279,7 +5310,7 @@
         <v>13</v>
       </c>
       <c r="H143" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5288,18 +5319,18 @@
         <v>125</v>
       </c>
       <c r="B144" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C144" s="78">
+        <v>99</v>
+      </c>
+      <c r="C144" s="58">
         <v>7390</v>
       </c>
-      <c r="D144" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E144" s="79">
+      <c r="D144" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E144" s="59">
         <v>2</v>
       </c>
-      <c r="F144" s="80">
+      <c r="F144" s="60">
         <v>7</v>
       </c>
       <c r="G144" s="41">
@@ -5307,7 +5338,7 @@
         <v>14</v>
       </c>
       <c r="H144" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5316,18 +5347,18 @@
         <v>126</v>
       </c>
       <c r="B145" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C145" s="78">
+        <v>100</v>
+      </c>
+      <c r="C145" s="58">
         <v>7391</v>
       </c>
-      <c r="D145" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="E145" s="79">
+      <c r="D145" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E145" s="59">
         <v>2</v>
       </c>
-      <c r="F145" s="80">
+      <c r="F145" s="60">
         <v>6.9</v>
       </c>
       <c r="G145" s="41">
@@ -5335,7 +5366,7 @@
         <v>13.8</v>
       </c>
       <c r="H145" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5344,18 +5375,18 @@
         <v>127</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C146" s="78">
+        <v>101</v>
+      </c>
+      <c r="C146" s="58">
         <v>1905</v>
       </c>
-      <c r="D146" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E146" s="79">
+      <c r="D146" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E146" s="59">
         <v>2</v>
       </c>
-      <c r="F146" s="80">
+      <c r="F146" s="60">
         <v>9.89</v>
       </c>
       <c r="G146" s="41">
@@ -5363,7 +5394,7 @@
         <v>19.78</v>
       </c>
       <c r="H146" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -5372,18 +5403,18 @@
         <v>128</v>
       </c>
       <c r="B147" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C147" s="19">
         <v>3355</v>
       </c>
-      <c r="D147" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E147" s="79">
+      <c r="D147" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E147" s="59">
         <v>21</v>
       </c>
-      <c r="F147" s="80">
+      <c r="F147" s="60">
         <v>19</v>
       </c>
       <c r="G147" s="41">
@@ -5391,7 +5422,7 @@
         <v>399</v>
       </c>
       <c r="H147" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="1:8" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
@@ -5400,26 +5431,25 @@
         <v>129</v>
       </c>
       <c r="B148" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C148" s="19">
         <v>8103</v>
       </c>
-      <c r="D148" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E148" s="79">
+      <c r="D148" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E148" s="59">
         <v>50</v>
       </c>
-      <c r="F148" s="80">
+      <c r="F148" s="60">
         <v>23.48</v>
       </c>
       <c r="G148" s="41">
-        <f t="shared" si="4"/>
-        <v>1174</v>
+        <v>1173.8900000000001</v>
       </c>
       <c r="H148" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5428,18 +5458,18 @@
         <v>130</v>
       </c>
       <c r="B149" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C149" s="19">
         <v>6344</v>
       </c>
-      <c r="D149" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E149" s="79">
+      <c r="D149" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="59">
         <v>1</v>
       </c>
-      <c r="F149" s="80">
+      <c r="F149" s="60">
         <v>244.47</v>
       </c>
       <c r="G149" s="41">
@@ -5447,7 +5477,7 @@
         <v>244.47</v>
       </c>
       <c r="H149" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5456,18 +5486,18 @@
         <v>131</v>
       </c>
       <c r="B150" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C150" s="19">
         <v>3576</v>
       </c>
-      <c r="D150" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E150" s="86">
+      <c r="D150" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E150" s="66">
         <v>1</v>
       </c>
-      <c r="F150" s="80">
+      <c r="F150" s="60">
         <v>111.55</v>
       </c>
       <c r="G150" s="41">
@@ -5475,7 +5505,7 @@
         <v>111.55</v>
       </c>
       <c r="H150" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5484,18 +5514,18 @@
         <v>132</v>
       </c>
       <c r="B151" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C151" s="19">
         <v>3577</v>
       </c>
-      <c r="D151" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E151" s="79">
+      <c r="D151" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E151" s="59">
         <v>1</v>
       </c>
-      <c r="F151" s="80">
+      <c r="F151" s="60">
         <v>111.55</v>
       </c>
       <c r="G151" s="41">
@@ -5503,7 +5533,7 @@
         <v>111.55</v>
       </c>
       <c r="H151" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:8" s="43" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -5512,18 +5542,18 @@
         <v>133</v>
       </c>
       <c r="B152" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C152" s="19">
         <v>3578</v>
       </c>
-      <c r="D152" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="E152" s="79">
+      <c r="D152" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E152" s="59">
         <v>1</v>
       </c>
-      <c r="F152" s="80">
+      <c r="F152" s="60">
         <v>120</v>
       </c>
       <c r="G152" s="41">
@@ -5531,7 +5561,7 @@
         <v>120</v>
       </c>
       <c r="H152" s="44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="43" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -5540,18 +5570,18 @@
         <v>134</v>
       </c>
       <c r="B153" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C153" s="19">
         <v>6343</v>
       </c>
-      <c r="D153" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E153" s="79">
+      <c r="D153" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="59">
         <v>2</v>
       </c>
-      <c r="F153" s="80">
+      <c r="F153" s="60">
         <v>72.12</v>
       </c>
       <c r="G153" s="41">
@@ -5559,7 +5589,7 @@
         <v>144.24</v>
       </c>
       <c r="H153" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5573,24 +5603,24 @@
         <f>SUM(E20:E153)</f>
         <v>685.52599999999995</v>
       </c>
-      <c r="F154" s="57" t="s">
+      <c r="F154" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G154" s="33">
         <f>SUM(G20:G153)</f>
-        <v>9815.4146599999985</v>
+        <v>9815.3116599999976</v>
       </c>
       <c r="H154" s="29"/>
     </row>
     <row r="155" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="156" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="47" t="s">
+      <c r="B156" s="56" t="s">
         <v>19</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
-      <c r="F156" s="58"/>
+      <c r="F156" s="17"/>
       <c r="G156" s="17"/>
       <c r="H156" s="30"/>
     </row>
@@ -5600,18 +5630,18 @@
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
-      <c r="F157" s="59"/>
+      <c r="F157" s="15"/>
       <c r="G157" s="15"/>
       <c r="H157" s="31"/>
     </row>
     <row r="158" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="47" t="s">
+      <c r="B158" s="56" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
-      <c r="F158" s="58"/>
+      <c r="F158" s="17"/>
       <c r="G158" s="17"/>
       <c r="H158" s="30"/>
     </row>
@@ -5621,7 +5651,7 @@
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
-      <c r="F159" s="59"/>
+      <c r="F159" s="15"/>
       <c r="G159" s="15"/>
       <c r="H159" s="31"/>
     </row>
@@ -5629,190 +5659,219 @@
       <c r="B160" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F160" s="52"/>
-    </row>
-    <row r="161" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C161" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D161" s="73"/>
-      <c r="E161" s="73"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="74" t="s">
+    </row>
+    <row r="161" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="69"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H161" s="74"/>
+      <c r="H161" s="68"/>
     </row>
     <row r="162" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F162" s="52" t="s">
+      <c r="F162" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G162" s="71" t="s">
+      <c r="G162" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H162" s="71"/>
+      <c r="H162" s="67"/>
     </row>
     <row r="163" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="F163" s="1"/>
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="73" t="s">
+      <c r="C164" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D164" s="69"/>
+      <c r="E164" s="69"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" s="68"/>
+    </row>
+    <row r="165" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" s="67"/>
+    </row>
+    <row r="166" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="D164" s="73"/>
-      <c r="E164" s="73"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H164" s="74"/>
-    </row>
-    <row r="165" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="51" t="s">
+      <c r="D166" s="69"/>
+      <c r="E166" s="69"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166" s="68"/>
+    </row>
+    <row r="167" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C167" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F165" s="52" t="s">
+      <c r="F167" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G165" s="71" t="s">
+      <c r="G167" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H165" s="71"/>
-    </row>
-    <row r="166" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="73" t="s">
+      <c r="H167" s="67"/>
+    </row>
+    <row r="168" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D166" s="73"/>
-      <c r="E166" s="73"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H166" s="74"/>
-    </row>
-    <row r="167" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C167" s="51" t="s">
+      <c r="D168" s="69"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H168" s="68"/>
+    </row>
+    <row r="169" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F167" s="52" t="s">
+      <c r="F169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G167" s="71" t="s">
+      <c r="G169" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H167" s="71"/>
-    </row>
-    <row r="168" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="D168" s="73"/>
-      <c r="E168" s="73"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H168" s="74"/>
-    </row>
-    <row r="169" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C169" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F169" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H169" s="71"/>
+      <c r="H169" s="67"/>
     </row>
     <row r="170" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C170" s="73" t="s">
+      <c r="C170" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D170" s="69"/>
+      <c r="E170" s="69"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="D170" s="73"/>
-      <c r="E170" s="73"/>
-      <c r="F170" s="60"/>
-      <c r="G170" s="74" t="s">
+      <c r="H170" s="68"/>
+    </row>
+    <row r="171" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C171" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H171" s="67"/>
+    </row>
+    <row r="172" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C172" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="H170" s="74"/>
-    </row>
-    <row r="171" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C171" s="51" t="s">
+      <c r="D172" s="69"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="H172" s="68"/>
+    </row>
+    <row r="173" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C173" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F171" s="52" t="s">
+      <c r="F173" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G171" s="71" t="s">
+      <c r="G173" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H171" s="71"/>
-    </row>
-    <row r="172" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="D172" s="73"/>
-      <c r="E172" s="73"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="H172" s="74"/>
-    </row>
-    <row r="173" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C173" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H173" s="71"/>
+      <c r="H173" s="67"/>
     </row>
     <row r="174" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F174" s="1"/>
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
+      <c r="C175" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D175" s="69"/>
+      <c r="E175" s="69"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="H175" s="68"/>
     </row>
     <row r="176" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F176" s="52" t="s">
+      <c r="F176" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G176" s="71" t="s">
+      <c r="G176" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H176" s="71"/>
+      <c r="H176" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A19:H19"/>
   <mergeCells count="34">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="G168:H168"/>
     <mergeCell ref="G173:H173"/>
     <mergeCell ref="C175:E175"/>
     <mergeCell ref="G175:H175"/>
@@ -5823,30 +5882,6 @@
     <mergeCell ref="G171:H171"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="81" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -5861,8 +5896,8 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5878,135 +5913,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="F4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:8" s="49" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-    </row>
-    <row r="15" spans="1:8" s="50" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-    </row>
-    <row r="16" spans="1:8" s="50" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" spans="1:8" s="49" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
@@ -6078,13 +6113,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="19">
         <v>9216</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="23">
         <v>130</v>
@@ -6096,8 +6131,8 @@
         <f t="shared" ref="G20:G21" si="0">E20*F20</f>
         <v>61.099999999999994</v>
       </c>
-      <c r="H20" s="75" t="s">
-        <v>109</v>
+      <c r="H20" s="81" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
@@ -6105,13 +6140,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="19">
         <v>9017</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E21" s="24">
         <v>100</v>
@@ -6123,7 +6158,7 @@
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="H21" s="76"/>
+      <c r="H21" s="82"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
@@ -6150,7 +6185,7 @@
       <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="17"/>
@@ -6171,7 +6206,7 @@
       <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="17"/>
@@ -6196,29 +6231,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C29" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+    <row r="29" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="74"/>
+      <c r="H29" s="68"/>
     </row>
     <row r="30" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="71"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
@@ -6227,127 +6262,127 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="C32" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="74" t="s">
+      <c r="G32" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="74"/>
+      <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="71"/>
+      <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="C34" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="74" t="s">
+      <c r="G34" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="74"/>
+      <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="71" t="s">
+      <c r="G35" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="71"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
+      <c r="C36" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="74" t="s">
+      <c r="G36" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="74"/>
+      <c r="H36" s="68"/>
     </row>
     <row r="37" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="71"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="74"/>
+      <c r="H38" s="68"/>
     </row>
     <row r="39" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="71"/>
+      <c r="H39" s="67"/>
     </row>
     <row r="40" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" s="74"/>
+      <c r="H40" s="68"/>
     </row>
     <row r="41" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="71" t="s">
+      <c r="G41" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="71"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
@@ -6356,27 +6391,56 @@
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
+      <c r="C43" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
+      <c r="G43" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="71" t="s">
+      <c r="G44" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="71"/>
+      <c r="H44" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="G43:H43"/>
@@ -6387,31 +6451,6 @@
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2020.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Мат. отчет\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Мат. отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752EA210-2BDD-49E7-9842-4C04B8E2F533}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="10" r:id="rId1"/>
@@ -18,18 +19,28 @@
     <sheet name="Февраль СИЗ" sheetId="13" r:id="rId4"/>
     <sheet name="Март" sheetId="14" r:id="rId5"/>
     <sheet name="Март СИЗ" sheetId="15" r:id="rId6"/>
+    <sheet name="Апрель" sheetId="16" r:id="rId7"/>
+    <sheet name="Апрель СИЗ" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Апрель!$A$19:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Март!$A$19:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Февраль!$A$19:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Январь!$A$19:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="246">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -797,11 +808,43 @@
   <si>
     <t>Фланей лоя подложек FL-GT 125 M 14</t>
   </si>
+  <si>
+    <r>
+      <t>назначенная приказом (распоряжением) от 30 декабря 2019 г. № 97 произвела проверку состояния предметов, находящихся в подотчете у ________</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Гавриленко А.Д.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____________________________________ и приняла решение списать следующие товарно-материальные ценности по причине их использования за период с "_____" ______________20___г. по  "_____" ______________20___г.</t>
+    </r>
+  </si>
+  <si>
+    <t>Полумаска противоаэрозольная, FFP1, до 4 ПКД. клапан, складная, Исток (шт)</t>
+  </si>
+  <si>
+    <t>Борфреза твердосплавная SPG  1225/6  DC/Z3  PLUS</t>
+  </si>
+  <si>
+    <t>Плашка трубная G 1 "d65 мм ГОСТ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0000000000"/>
     <numFmt numFmtId="165" formatCode="0;[Red]\-0"/>
@@ -1204,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1571,6 +1614,54 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1588,41 +1679,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -1653,24 +1732,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1765,6 +1826,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1800,6 +1878,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1975,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -1999,53 +2094,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="F1" s="125" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="F2" s="127" t="s">
+      <c r="A2" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="F2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="51" t="s">
@@ -2056,43 +2151,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2105,28 +2200,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
     </row>
     <row r="15" spans="1:8" s="47" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
     </row>
     <row r="16" spans="1:8" s="47" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="52"/>
@@ -6014,16 +6109,16 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="135" t="s">
+      <c r="C161" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="D161" s="135"/>
-      <c r="E161" s="135"/>
+      <c r="D161" s="131"/>
+      <c r="E161" s="131"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="136" t="s">
+      <c r="G161" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="H161" s="136"/>
+      <c r="H161" s="133"/>
     </row>
     <row r="162" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="69" t="s">
@@ -6032,10 +6127,10 @@
       <c r="F162" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G162" s="133" t="s">
+      <c r="G162" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H162" s="133"/>
+      <c r="H162" s="129"/>
     </row>
     <row r="163" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="8" t="s">
@@ -6045,16 +6140,16 @@
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="135" t="s">
+      <c r="C164" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="D164" s="135"/>
-      <c r="E164" s="135"/>
+      <c r="D164" s="131"/>
+      <c r="E164" s="131"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="136" t="s">
+      <c r="G164" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="H164" s="136"/>
+      <c r="H164" s="133"/>
     </row>
     <row r="165" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="69" t="s">
@@ -6063,22 +6158,22 @@
       <c r="F165" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G165" s="133" t="s">
+      <c r="G165" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H165" s="133"/>
+      <c r="H165" s="129"/>
     </row>
     <row r="166" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="135" t="s">
+      <c r="C166" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="D166" s="135"/>
-      <c r="E166" s="135"/>
+      <c r="D166" s="131"/>
+      <c r="E166" s="131"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="136" t="s">
+      <c r="G166" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="H166" s="136"/>
+      <c r="H166" s="133"/>
     </row>
     <row r="167" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C167" s="69" t="s">
@@ -6087,22 +6182,22 @@
       <c r="F167" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G167" s="133" t="s">
+      <c r="G167" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H167" s="133"/>
+      <c r="H167" s="129"/>
     </row>
     <row r="168" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="135" t="s">
+      <c r="C168" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="D168" s="135"/>
-      <c r="E168" s="135"/>
+      <c r="D168" s="131"/>
+      <c r="E168" s="131"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="136" t="s">
+      <c r="G168" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="H168" s="136"/>
+      <c r="H168" s="133"/>
     </row>
     <row r="169" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="69" t="s">
@@ -6111,25 +6206,25 @@
       <c r="F169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G169" s="133" t="s">
+      <c r="G169" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H169" s="133"/>
+      <c r="H169" s="129"/>
     </row>
     <row r="170" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C170" s="135" t="s">
+      <c r="C170" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="D170" s="135"/>
-      <c r="E170" s="135"/>
+      <c r="D170" s="131"/>
+      <c r="E170" s="131"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="136" t="s">
+      <c r="G170" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="H170" s="136"/>
+      <c r="H170" s="133"/>
     </row>
     <row r="171" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="69" t="s">
@@ -6138,22 +6233,22 @@
       <c r="F171" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G171" s="133" t="s">
+      <c r="G171" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H171" s="133"/>
+      <c r="H171" s="129"/>
     </row>
     <row r="172" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="135" t="s">
+      <c r="C172" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="D172" s="135"/>
-      <c r="E172" s="135"/>
+      <c r="D172" s="131"/>
+      <c r="E172" s="131"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="136" t="s">
+      <c r="G172" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="H172" s="136"/>
+      <c r="H172" s="133"/>
     </row>
     <row r="173" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C173" s="69" t="s">
@@ -6162,10 +6257,10 @@
       <c r="F173" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G173" s="133" t="s">
+      <c r="G173" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H173" s="133"/>
+      <c r="H173" s="129"/>
     </row>
     <row r="174" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F174" s="1"/>
@@ -6175,16 +6270,16 @@
       <c r="B175" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="137" t="s">
+      <c r="C175" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="D175" s="135"/>
-      <c r="E175" s="135"/>
+      <c r="D175" s="131"/>
+      <c r="E175" s="131"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="138" t="s">
+      <c r="G175" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="H175" s="136"/>
+      <c r="H175" s="133"/>
     </row>
     <row r="176" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C176" s="69" t="s">
@@ -6193,14 +6288,38 @@
       <c r="F176" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G176" s="133" t="s">
+      <c r="G176" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H176" s="133"/>
+      <c r="H176" s="129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:H19"/>
+  <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="34">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="G168:H168"/>
     <mergeCell ref="G173:H173"/>
     <mergeCell ref="C175:E175"/>
     <mergeCell ref="G175:H175"/>
@@ -6211,30 +6330,6 @@
     <mergeCell ref="G171:H171"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="81" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -6242,7 +6337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -6266,53 +6361,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="F1" s="125" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="F2" s="127" t="s">
+      <c r="A2" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="F2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
@@ -6323,43 +6418,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6371,28 +6466,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
     </row>
     <row r="16" spans="1:8" s="49" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -6484,7 +6579,7 @@
         <f t="shared" ref="G20:G21" si="0">E20*F20</f>
         <v>61.099999999999994</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="145" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6511,7 +6606,7 @@
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="H21" s="140"/>
+      <c r="H21" s="146"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
@@ -6585,16 +6680,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="136" t="s">
+      <c r="G29" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="136"/>
+      <c r="H29" s="133"/>
     </row>
     <row r="30" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="69" t="s">
@@ -6603,10 +6698,10 @@
       <c r="F30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="133" t="s">
+      <c r="G30" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="133"/>
+      <c r="H30" s="129"/>
     </row>
     <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
@@ -6615,16 +6710,16 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="136" t="s">
+      <c r="G32" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="136"/>
+      <c r="H32" s="133"/>
     </row>
     <row r="33" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="69" t="s">
@@ -6633,22 +6728,22 @@
       <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="133" t="s">
+      <c r="G33" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="133"/>
+      <c r="H33" s="129"/>
     </row>
     <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="135" t="s">
+      <c r="C34" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="136" t="s">
+      <c r="G34" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="136"/>
+      <c r="H34" s="133"/>
     </row>
     <row r="35" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
@@ -6657,22 +6752,22 @@
       <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="133" t="s">
+      <c r="G35" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="133"/>
+      <c r="H35" s="129"/>
     </row>
     <row r="36" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="136" t="s">
+      <c r="G36" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="136"/>
+      <c r="H36" s="133"/>
     </row>
     <row r="37" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="69" t="s">
@@ -6681,25 +6776,25 @@
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="133" t="s">
+      <c r="G37" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="133"/>
+      <c r="H37" s="129"/>
     </row>
     <row r="38" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="136" t="s">
+      <c r="G38" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="136"/>
+      <c r="H38" s="133"/>
     </row>
     <row r="39" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="69" t="s">
@@ -6708,22 +6803,22 @@
       <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="133" t="s">
+      <c r="G39" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="133"/>
+      <c r="H39" s="129"/>
     </row>
     <row r="40" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="135" t="s">
+      <c r="C40" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="136" t="s">
+      <c r="G40" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="136"/>
+      <c r="H40" s="133"/>
     </row>
     <row r="41" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C41" s="69" t="s">
@@ -6732,10 +6827,10 @@
       <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="133" t="s">
+      <c r="G41" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="133"/>
+      <c r="H41" s="129"/>
     </row>
     <row r="42" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
@@ -6744,16 +6839,16 @@
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="138" t="s">
+      <c r="G43" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="H43" s="136"/>
+      <c r="H43" s="133"/>
     </row>
     <row r="44" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C44" s="69" t="s">
@@ -6762,13 +6857,38 @@
       <c r="F44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="133" t="s">
+      <c r="G44" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="133"/>
+      <c r="H44" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="G43:H43"/>
@@ -6779,31 +6899,6 @@
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -6811,7 +6906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -6836,53 +6931,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="F1" s="143" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="F1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="F2" s="145" t="s">
+      <c r="A2" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="F2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
     </row>
     <row r="6" spans="1:8" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="77" t="s">
@@ -6893,43 +6988,43 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6942,16 +7037,16 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="1:8" s="78" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="152" t="s">
@@ -10290,16 +10385,16 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="153" t="s">
+      <c r="C141" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="D141" s="153"/>
-      <c r="E141" s="153"/>
+      <c r="D141" s="149"/>
+      <c r="E141" s="149"/>
       <c r="F141" s="112"/>
-      <c r="G141" s="154" t="s">
+      <c r="G141" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H141" s="154"/>
+      <c r="H141" s="151"/>
     </row>
     <row r="142" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="113" t="s">
@@ -10308,10 +10403,10 @@
       <c r="F142" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="151" t="s">
+      <c r="G142" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H142" s="151"/>
+      <c r="H142" s="147"/>
     </row>
     <row r="143" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="111" t="s">
@@ -10321,16 +10416,16 @@
       <c r="H143" s="74"/>
     </row>
     <row r="144" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="153" t="s">
+      <c r="C144" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="D144" s="153"/>
-      <c r="E144" s="153"/>
+      <c r="D144" s="149"/>
+      <c r="E144" s="149"/>
       <c r="F144" s="112"/>
-      <c r="G144" s="154" t="s">
+      <c r="G144" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H144" s="154"/>
+      <c r="H144" s="151"/>
     </row>
     <row r="145" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="113" t="s">
@@ -10339,22 +10434,22 @@
       <c r="F145" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G145" s="151" t="s">
+      <c r="G145" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H145" s="151"/>
+      <c r="H145" s="147"/>
     </row>
     <row r="146" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="153" t="s">
+      <c r="C146" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="D146" s="153"/>
-      <c r="E146" s="153"/>
+      <c r="D146" s="149"/>
+      <c r="E146" s="149"/>
       <c r="F146" s="112"/>
-      <c r="G146" s="154" t="s">
+      <c r="G146" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="H146" s="154"/>
+      <c r="H146" s="151"/>
     </row>
     <row r="147" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C147" s="113" t="s">
@@ -10363,22 +10458,22 @@
       <c r="F147" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G147" s="151" t="s">
+      <c r="G147" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H147" s="151"/>
+      <c r="H147" s="147"/>
     </row>
     <row r="148" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="153" t="s">
+      <c r="C148" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="D148" s="153"/>
-      <c r="E148" s="153"/>
+      <c r="D148" s="149"/>
+      <c r="E148" s="149"/>
       <c r="F148" s="112"/>
-      <c r="G148" s="154" t="s">
+      <c r="G148" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="H148" s="154"/>
+      <c r="H148" s="151"/>
     </row>
     <row r="149" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="113" t="s">
@@ -10387,25 +10482,25 @@
       <c r="F149" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G149" s="151" t="s">
+      <c r="G149" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H149" s="151"/>
+      <c r="H149" s="147"/>
     </row>
     <row r="150" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="153" t="s">
+      <c r="C150" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="D150" s="153"/>
-      <c r="E150" s="153"/>
+      <c r="D150" s="149"/>
+      <c r="E150" s="149"/>
       <c r="F150" s="112"/>
-      <c r="G150" s="154" t="s">
+      <c r="G150" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="H150" s="154"/>
+      <c r="H150" s="151"/>
     </row>
     <row r="151" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="113" t="s">
@@ -10414,22 +10509,22 @@
       <c r="F151" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="151" t="s">
+      <c r="G151" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H151" s="151"/>
+      <c r="H151" s="147"/>
     </row>
     <row r="152" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="153" t="s">
+      <c r="C152" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="D152" s="153"/>
-      <c r="E152" s="153"/>
+      <c r="D152" s="149"/>
+      <c r="E152" s="149"/>
       <c r="F152" s="112"/>
-      <c r="G152" s="154" t="s">
+      <c r="G152" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="H152" s="154"/>
+      <c r="H152" s="151"/>
     </row>
     <row r="153" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C153" s="113" t="s">
@@ -10438,10 +10533,10 @@
       <c r="F153" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G153" s="151" t="s">
+      <c r="G153" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H153" s="151"/>
+      <c r="H153" s="147"/>
     </row>
     <row r="154" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F154" s="74"/>
@@ -10451,16 +10546,16 @@
       <c r="B155" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="155" t="s">
+      <c r="C155" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="D155" s="153"/>
-      <c r="E155" s="153"/>
+      <c r="D155" s="149"/>
+      <c r="E155" s="149"/>
       <c r="F155" s="112"/>
-      <c r="G155" s="156" t="s">
+      <c r="G155" s="150" t="s">
         <v>196</v>
       </c>
-      <c r="H155" s="154"/>
+      <c r="H155" s="151"/>
     </row>
     <row r="156" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C156" s="113" t="s">
@@ -10469,36 +10564,14 @@
       <c r="F156" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G156" s="151" t="s">
+      <c r="G156" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H156" s="151"/>
+      <c r="H156" s="147"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:H19"/>
+  <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="34">
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="G144:H144"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
@@ -10511,6 +10584,28 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="G152:H152"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="81" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -10518,7 +10613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -10542,53 +10637,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="F1" s="125" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="F2" s="127" t="s">
+      <c r="A2" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="F2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
@@ -10599,43 +10694,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10647,28 +10742,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
     </row>
     <row r="15" spans="1:8" s="68" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
     </row>
     <row r="16" spans="1:8" s="68" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -10760,7 +10855,7 @@
         <f t="shared" ref="G20:G23" si="0">E20*F20</f>
         <v>67.2</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="145" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10788,7 +10883,7 @@
         <f t="shared" si="0"/>
         <v>9.7799999999999994</v>
       </c>
-      <c r="H21" s="140"/>
+      <c r="H21" s="146"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
@@ -10814,7 +10909,7 @@
         <f t="shared" si="0"/>
         <v>51.7</v>
       </c>
-      <c r="H22" s="140"/>
+      <c r="H22" s="146"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -10840,7 +10935,7 @@
         <f t="shared" si="0"/>
         <v>222.48000000000002</v>
       </c>
-      <c r="H23" s="140"/>
+      <c r="H23" s="146"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
@@ -10914,16 +11009,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="136" t="s">
+      <c r="G31" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="136"/>
+      <c r="H31" s="133"/>
     </row>
     <row r="32" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="69" t="s">
@@ -10932,10 +11027,10 @@
       <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="133" t="s">
+      <c r="G32" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="133"/>
+      <c r="H32" s="129"/>
     </row>
     <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
@@ -10944,16 +11039,16 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="135" t="s">
+      <c r="C34" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="136" t="s">
+      <c r="G34" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="136"/>
+      <c r="H34" s="133"/>
     </row>
     <row r="35" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
@@ -10962,22 +11057,22 @@
       <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="133" t="s">
+      <c r="G35" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="133"/>
+      <c r="H35" s="129"/>
     </row>
     <row r="36" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="136" t="s">
+      <c r="G36" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="136"/>
+      <c r="H36" s="133"/>
     </row>
     <row r="37" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C37" s="69" t="s">
@@ -10986,22 +11081,22 @@
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="133" t="s">
+      <c r="G37" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="133"/>
+      <c r="H37" s="129"/>
     </row>
     <row r="38" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="135" t="s">
+      <c r="C38" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="136" t="s">
+      <c r="G38" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="136"/>
+      <c r="H38" s="133"/>
     </row>
     <row r="39" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="69" t="s">
@@ -11010,25 +11105,25 @@
       <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="133" t="s">
+      <c r="G39" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="133"/>
+      <c r="H39" s="129"/>
     </row>
     <row r="40" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="135" t="s">
+      <c r="C40" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="136" t="s">
+      <c r="G40" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="136"/>
+      <c r="H40" s="133"/>
     </row>
     <row r="41" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="69" t="s">
@@ -11037,22 +11132,22 @@
       <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="133" t="s">
+      <c r="G41" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="133"/>
+      <c r="H41" s="129"/>
     </row>
     <row r="42" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="136" t="s">
+      <c r="G42" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="136"/>
+      <c r="H42" s="133"/>
     </row>
     <row r="43" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C43" s="69" t="s">
@@ -11061,10 +11156,10 @@
       <c r="F43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="133" t="s">
+      <c r="G43" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="133"/>
+      <c r="H43" s="129"/>
     </row>
     <row r="44" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
@@ -11073,16 +11168,16 @@
       <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="137" t="s">
+      <c r="C45" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="138" t="s">
+      <c r="G45" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="H45" s="136"/>
+      <c r="H45" s="133"/>
     </row>
     <row r="46" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C46" s="69" t="s">
@@ -11091,29 +11186,19 @@
       <c r="F46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="133" t="s">
+      <c r="G46" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="133"/>
+      <c r="H46" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="F5:H5"/>
@@ -11127,12 +11212,22 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -11140,14 +11235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A44" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -11165,53 +11260,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="F1" s="143" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="F1" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="144" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="F2" s="145" t="s">
+      <c r="A2" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="F2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
     </row>
     <row r="6" spans="1:8" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="77" t="s">
@@ -11222,43 +11317,43 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11271,16 +11366,16 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="153" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="1:8" s="119" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="152" t="s">
@@ -11949,7 +12044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="39">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -14481,16 +14576,16 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="153" t="s">
+      <c r="C136" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="D136" s="153"/>
-      <c r="E136" s="153"/>
+      <c r="D136" s="149"/>
+      <c r="E136" s="149"/>
       <c r="F136" s="112"/>
-      <c r="G136" s="154" t="s">
+      <c r="G136" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="H136" s="154"/>
+      <c r="H136" s="151"/>
     </row>
     <row r="137" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="113" t="s">
@@ -14499,10 +14594,10 @@
       <c r="F137" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G137" s="151" t="s">
+      <c r="G137" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="151"/>
+      <c r="H137" s="147"/>
     </row>
     <row r="138" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="111" t="s">
@@ -14512,16 +14607,16 @@
       <c r="H138" s="74"/>
     </row>
     <row r="139" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="153" t="s">
+      <c r="C139" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="D139" s="153"/>
-      <c r="E139" s="153"/>
+      <c r="D139" s="149"/>
+      <c r="E139" s="149"/>
       <c r="F139" s="112"/>
-      <c r="G139" s="154" t="s">
+      <c r="G139" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="H139" s="154"/>
+      <c r="H139" s="151"/>
     </row>
     <row r="140" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="113" t="s">
@@ -14530,22 +14625,22 @@
       <c r="F140" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G140" s="151" t="s">
+      <c r="G140" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="151"/>
+      <c r="H140" s="147"/>
     </row>
     <row r="141" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="153" t="s">
+      <c r="C141" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="D141" s="153"/>
-      <c r="E141" s="153"/>
+      <c r="D141" s="149"/>
+      <c r="E141" s="149"/>
       <c r="F141" s="112"/>
-      <c r="G141" s="154" t="s">
+      <c r="G141" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="H141" s="154"/>
+      <c r="H141" s="151"/>
     </row>
     <row r="142" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C142" s="113" t="s">
@@ -14554,22 +14649,22 @@
       <c r="F142" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="151" t="s">
+      <c r="G142" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H142" s="151"/>
+      <c r="H142" s="147"/>
     </row>
     <row r="143" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C143" s="153" t="s">
+      <c r="C143" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="D143" s="153"/>
-      <c r="E143" s="153"/>
+      <c r="D143" s="149"/>
+      <c r="E143" s="149"/>
       <c r="F143" s="112"/>
-      <c r="G143" s="154" t="s">
+      <c r="G143" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="H143" s="154"/>
+      <c r="H143" s="151"/>
     </row>
     <row r="144" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="113" t="s">
@@ -14578,25 +14673,25 @@
       <c r="F144" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G144" s="151" t="s">
+      <c r="G144" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H144" s="151"/>
+      <c r="H144" s="147"/>
     </row>
     <row r="145" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C145" s="153" t="s">
+      <c r="C145" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="D145" s="153"/>
-      <c r="E145" s="153"/>
+      <c r="D145" s="149"/>
+      <c r="E145" s="149"/>
       <c r="F145" s="112"/>
-      <c r="G145" s="154" t="s">
+      <c r="G145" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="H145" s="154"/>
+      <c r="H145" s="151"/>
     </row>
     <row r="146" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="113" t="s">
@@ -14605,22 +14700,22 @@
       <c r="F146" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G146" s="151" t="s">
+      <c r="G146" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H146" s="151"/>
+      <c r="H146" s="147"/>
     </row>
     <row r="147" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="153" t="s">
+      <c r="C147" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="D147" s="153"/>
-      <c r="E147" s="153"/>
+      <c r="D147" s="149"/>
+      <c r="E147" s="149"/>
       <c r="F147" s="112"/>
-      <c r="G147" s="154" t="s">
+      <c r="G147" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="H147" s="154"/>
+      <c r="H147" s="151"/>
     </row>
     <row r="148" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C148" s="113" t="s">
@@ -14629,10 +14724,10 @@
       <c r="F148" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G148" s="151" t="s">
+      <c r="G148" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H148" s="151"/>
+      <c r="H148" s="147"/>
     </row>
     <row r="149" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F149" s="74"/>
@@ -14642,16 +14737,16 @@
       <c r="B150" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="155" t="s">
+      <c r="C150" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="D150" s="153"/>
-      <c r="E150" s="153"/>
+      <c r="D150" s="149"/>
+      <c r="E150" s="149"/>
       <c r="F150" s="112"/>
-      <c r="G150" s="156" t="s">
+      <c r="G150" s="150" t="s">
         <v>196</v>
       </c>
-      <c r="H150" s="154"/>
+      <c r="H150" s="151"/>
     </row>
     <row r="151" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C151" s="113" t="s">
@@ -14660,14 +14755,36 @@
       <c r="F151" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="151" t="s">
+      <c r="G151" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="H151" s="151"/>
+      <c r="H151" s="147"/>
     </row>
   </sheetData>
-  <autoFilter ref="A19:H19"/>
+  <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="34">
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="G139:H139"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
@@ -14680,28 +14797,6 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="G147:H147"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="80" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -14713,7 +14808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -14737,53 +14832,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="F1" s="125" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="F2" s="127" t="s">
+      <c r="A2" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="F2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
@@ -14794,43 +14889,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -14842,28 +14937,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
     </row>
     <row r="15" spans="1:8" s="117" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
     </row>
     <row r="16" spans="1:8" s="117" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -14955,7 +15050,7 @@
         <f t="shared" ref="G20:G22" si="0">E20*F20</f>
         <v>67.2</v>
       </c>
-      <c r="H20" s="139" t="s">
+      <c r="H20" s="145" t="s">
         <v>108</v>
       </c>
     </row>
@@ -14982,7 +15077,7 @@
         <f t="shared" si="0"/>
         <v>5.17</v>
       </c>
-      <c r="H21" s="140"/>
+      <c r="H21" s="146"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
@@ -15007,7 +15102,7 @@
         <f t="shared" si="0"/>
         <v>188.1</v>
       </c>
-      <c r="H22" s="140"/>
+      <c r="H22" s="146"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
@@ -15081,16 +15176,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="135"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="136" t="s">
+      <c r="G30" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="136"/>
+      <c r="H30" s="133"/>
     </row>
     <row r="31" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="69" t="s">
@@ -15099,10 +15194,10 @@
       <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="133" t="s">
+      <c r="G31" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="133"/>
+      <c r="H31" s="129"/>
     </row>
     <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
@@ -15111,16 +15206,16 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="135" t="s">
+      <c r="C33" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="136" t="s">
+      <c r="G33" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="136"/>
+      <c r="H33" s="133"/>
     </row>
     <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="69" t="s">
@@ -15129,22 +15224,22 @@
       <c r="F34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="133"/>
+      <c r="H34" s="129"/>
     </row>
     <row r="35" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="136" t="s">
+      <c r="G35" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="136"/>
+      <c r="H35" s="133"/>
     </row>
     <row r="36" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C36" s="69" t="s">
@@ -15153,22 +15248,22 @@
       <c r="F36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="133" t="s">
+      <c r="G36" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="133"/>
+      <c r="H36" s="129"/>
     </row>
     <row r="37" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="135" t="s">
+      <c r="C37" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="136" t="s">
+      <c r="G37" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="136"/>
+      <c r="H37" s="133"/>
     </row>
     <row r="38" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="69" t="s">
@@ -15177,25 +15272,25 @@
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="133" t="s">
+      <c r="G38" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="133"/>
+      <c r="H38" s="129"/>
     </row>
     <row r="39" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="135" t="s">
+      <c r="C39" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="136" t="s">
+      <c r="G39" s="133" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="136"/>
+      <c r="H39" s="133"/>
     </row>
     <row r="40" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="69" t="s">
@@ -15204,22 +15299,22 @@
       <c r="F40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="133" t="s">
+      <c r="G40" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="133"/>
+      <c r="H40" s="129"/>
     </row>
     <row r="41" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="137" t="s">
+      <c r="C41" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="136" t="s">
+      <c r="G41" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="136"/>
+      <c r="H41" s="133"/>
     </row>
     <row r="42" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C42" s="69" t="s">
@@ -15228,10 +15323,10 @@
       <c r="F42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="133" t="s">
+      <c r="G42" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="133"/>
+      <c r="H42" s="129"/>
     </row>
     <row r="43" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="1"/>
@@ -15240,16 +15335,16 @@
       <c r="B44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="137" t="s">
+      <c r="C44" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="135"/>
-      <c r="E44" s="135"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="138" t="s">
+      <c r="G44" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="H44" s="136"/>
+      <c r="H44" s="133"/>
     </row>
     <row r="45" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C45" s="69" t="s">
@@ -15258,19 +15353,29 @@
       <c r="F45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="133" t="s">
+      <c r="G45" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="133"/>
+      <c r="H45" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F5:H5"/>
@@ -15284,22 +15389,3618 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5C0D54-B22E-4FED-A564-BC7552613143}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="43" style="74" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="15" style="76" customWidth="1"/>
+    <col min="7" max="7" width="20" style="74" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="80" customWidth="1"/>
+    <col min="9" max="16384" width="10.5" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="F1" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="F2" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="H3" s="74"/>
+    </row>
+    <row r="4" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+    </row>
+    <row r="6" spans="1:8" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="H11" s="74"/>
+    </row>
+    <row r="12" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="76"/>
+      <c r="H12" s="74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:8" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="153" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+    </row>
+    <row r="15" spans="1:8" s="126" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="152" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+    </row>
+    <row r="16" spans="1:8" s="126" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="79"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="1:8" s="85" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="85" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="86"/>
+      <c r="B18" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="1:8" s="91" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>1</v>
+      </c>
+      <c r="B19" s="89">
+        <v>2</v>
+      </c>
+      <c r="C19" s="89">
+        <v>3</v>
+      </c>
+      <c r="D19" s="89">
+        <v>4</v>
+      </c>
+      <c r="E19" s="89">
+        <v>5</v>
+      </c>
+      <c r="F19" s="89">
+        <v>6</v>
+      </c>
+      <c r="G19" s="89">
+        <v>7</v>
+      </c>
+      <c r="H19" s="90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="58">
+        <v>4234</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="92">
+        <v>10</v>
+      </c>
+      <c r="F20" s="73">
+        <v>179.24</v>
+      </c>
+      <c r="G20" s="41">
+        <f>E20*F20</f>
+        <v>1792.4</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="58">
+        <v>7961</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="92">
+        <v>60</v>
+      </c>
+      <c r="F21" s="73">
+        <v>5.76</v>
+      </c>
+      <c r="G21" s="41">
+        <f>E21*F21</f>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="39">
+        <f>A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="58">
+        <v>6385</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="92">
+        <v>40</v>
+      </c>
+      <c r="F22" s="73">
+        <v>5.76</v>
+      </c>
+      <c r="G22" s="41">
+        <f t="shared" ref="G22:G69" si="0">E22*F22</f>
+        <v>230.39999999999998</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="39">
+        <f>A22+1</f>
+        <v>4</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="58">
+        <v>8877</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="57">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40">
+        <v>28.41</v>
+      </c>
+      <c r="G23" s="41">
+        <f t="shared" si="0"/>
+        <v>28.41</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <f t="shared" ref="A24:A32" si="1">A23+1</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="58">
+        <v>4232</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="92">
+        <v>10</v>
+      </c>
+      <c r="F24" s="73">
+        <v>31.93</v>
+      </c>
+      <c r="G24" s="41">
+        <f t="shared" si="0"/>
+        <v>319.3</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="58">
+        <v>4233</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="92">
+        <v>20</v>
+      </c>
+      <c r="F25" s="73">
+        <v>31.93</v>
+      </c>
+      <c r="G25" s="41">
+        <f t="shared" si="0"/>
+        <v>638.6</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="39">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="58">
+        <v>4327</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="92">
+        <v>10</v>
+      </c>
+      <c r="F26" s="73">
+        <v>7.49</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" si="0"/>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="39">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="58">
+        <v>4331</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="92">
+        <v>10</v>
+      </c>
+      <c r="F27" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="39">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="58">
+        <v>8857</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="92">
+        <v>10</v>
+      </c>
+      <c r="F28" s="73">
+        <v>6.51</v>
+      </c>
+      <c r="G28" s="41">
+        <f t="shared" si="0"/>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="58">
+        <v>9681</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="92">
+        <v>10</v>
+      </c>
+      <c r="F29" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="G29" s="41">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="39">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="58">
+        <v>4328</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="92">
+        <v>10</v>
+      </c>
+      <c r="F30" s="73">
+        <v>9.56</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" si="0"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="58">
+        <v>8858</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="92">
+        <v>10</v>
+      </c>
+      <c r="F31" s="73">
+        <v>8.33</v>
+      </c>
+      <c r="G31" s="41">
+        <f t="shared" si="0"/>
+        <v>83.3</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="39">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="58">
+        <v>8859</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="92">
+        <v>10</v>
+      </c>
+      <c r="F32" s="73">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" si="0"/>
+        <v>100.3</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="39">
+        <f t="shared" ref="A33:A96" si="2">A32+1</f>
+        <v>14</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="58">
+        <v>8855</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="92">
+        <v>10</v>
+      </c>
+      <c r="F33" s="73">
+        <v>3.66</v>
+      </c>
+      <c r="G33" s="41">
+        <f t="shared" si="0"/>
+        <v>36.6</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="39">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="58">
+        <v>8856</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="92">
+        <v>10</v>
+      </c>
+      <c r="F34" s="73">
+        <v>3.66</v>
+      </c>
+      <c r="G34" s="41">
+        <f t="shared" si="0"/>
+        <v>36.6</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="39">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="121">
+        <v>1661</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="128">
+        <v>1</v>
+      </c>
+      <c r="F35" s="122">
+        <v>21.9</v>
+      </c>
+      <c r="G35" s="41">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="39">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="121">
+        <v>1657</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="128">
+        <v>1</v>
+      </c>
+      <c r="F36" s="122">
+        <v>9.6</v>
+      </c>
+      <c r="G36" s="41">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="39">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="121">
+        <v>1655</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="128">
+        <v>1</v>
+      </c>
+      <c r="F37" s="122">
+        <v>5.4</v>
+      </c>
+      <c r="G37" s="41">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="39">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="121">
+        <v>1660</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="128">
+        <v>1</v>
+      </c>
+      <c r="F38" s="122">
+        <v>11.74</v>
+      </c>
+      <c r="G38" s="41">
+        <f t="shared" si="0"/>
+        <v>11.74</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="39">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="121">
+        <v>1656</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="128">
+        <v>1</v>
+      </c>
+      <c r="F39" s="122">
+        <v>7.49</v>
+      </c>
+      <c r="G39" s="41">
+        <f t="shared" si="0"/>
+        <v>7.49</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="39">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="58">
+        <v>5809</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="92">
+        <v>1</v>
+      </c>
+      <c r="F40" s="73">
+        <v>17.14</v>
+      </c>
+      <c r="G40" s="41">
+        <f t="shared" si="0"/>
+        <v>17.14</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="39">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="58">
+        <v>5810</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="92">
+        <v>1</v>
+      </c>
+      <c r="F41" s="73">
+        <v>20.98</v>
+      </c>
+      <c r="G41" s="41">
+        <f t="shared" si="0"/>
+        <v>20.98</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="39">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="58">
+        <v>5816</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="92">
+        <v>1</v>
+      </c>
+      <c r="F42" s="73">
+        <v>24.84</v>
+      </c>
+      <c r="G42" s="41">
+        <f t="shared" si="0"/>
+        <v>24.84</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="58">
+        <v>5811</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="92">
+        <v>1</v>
+      </c>
+      <c r="F43" s="73">
+        <v>29.69</v>
+      </c>
+      <c r="G43" s="41">
+        <f t="shared" si="0"/>
+        <v>29.69</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="39">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="58">
+        <v>5815</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="127">
+        <v>10</v>
+      </c>
+      <c r="F44" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="G44" s="41">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="39">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="58">
+        <v>5774</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="92">
+        <v>2</v>
+      </c>
+      <c r="F45" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G45" s="41">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="58">
+        <v>5775</v>
+      </c>
+      <c r="D46" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="92">
+        <v>2</v>
+      </c>
+      <c r="F46" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G46" s="41">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="58">
+        <v>5777</v>
+      </c>
+      <c r="D47" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="92">
+        <v>2</v>
+      </c>
+      <c r="F47" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G47" s="41">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="39">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="58">
+        <v>1736</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="92">
+        <v>1</v>
+      </c>
+      <c r="F48" s="73">
+        <v>19.63</v>
+      </c>
+      <c r="G48" s="41">
+        <f t="shared" si="0"/>
+        <v>19.63</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="39">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="58">
+        <v>9298</v>
+      </c>
+      <c r="D49" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="92">
+        <v>5</v>
+      </c>
+      <c r="F49" s="73">
+        <v>3.71</v>
+      </c>
+      <c r="G49" s="41">
+        <f t="shared" si="0"/>
+        <v>18.55</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="58">
+        <v>9299</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="92">
+        <v>5</v>
+      </c>
+      <c r="F50" s="73">
+        <v>4.46</v>
+      </c>
+      <c r="G50" s="41">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="39">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="58">
+        <v>5737</v>
+      </c>
+      <c r="D51" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="94">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F51" s="95">
+        <v>1995</v>
+      </c>
+      <c r="G51" s="41">
+        <f t="shared" si="0"/>
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="39">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="58">
+        <v>5808</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="92">
+        <v>10</v>
+      </c>
+      <c r="F52" s="73">
+        <v>3.8</v>
+      </c>
+      <c r="G52" s="41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="39">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="58">
+        <v>8862</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="92">
+        <v>2</v>
+      </c>
+      <c r="F53" s="73">
+        <v>4.66</v>
+      </c>
+      <c r="G53" s="41">
+        <f t="shared" si="0"/>
+        <v>9.32</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="39">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="58">
+        <v>8864</v>
+      </c>
+      <c r="D54" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="92">
+        <v>2</v>
+      </c>
+      <c r="F54" s="73">
+        <v>5.88</v>
+      </c>
+      <c r="G54" s="41">
+        <f t="shared" si="0"/>
+        <v>11.76</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="39">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="58">
+        <v>9237</v>
+      </c>
+      <c r="D55" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="92">
+        <v>2</v>
+      </c>
+      <c r="F55" s="73">
+        <v>94</v>
+      </c>
+      <c r="G55" s="41">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="39">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="58">
+        <v>6889</v>
+      </c>
+      <c r="D56" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="92">
+        <v>2</v>
+      </c>
+      <c r="F56" s="73">
+        <v>11.12</v>
+      </c>
+      <c r="G56" s="41">
+        <f t="shared" si="0"/>
+        <v>22.24</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="39">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="58">
+        <v>6905</v>
+      </c>
+      <c r="D57" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="92">
+        <v>2</v>
+      </c>
+      <c r="F57" s="73">
+        <v>11.64</v>
+      </c>
+      <c r="G57" s="41">
+        <f t="shared" si="0"/>
+        <v>23.28</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="39">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="58">
+        <v>6892</v>
+      </c>
+      <c r="D58" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="92">
+        <v>2</v>
+      </c>
+      <c r="F58" s="73">
+        <v>12.06</v>
+      </c>
+      <c r="G58" s="41">
+        <f t="shared" si="0"/>
+        <v>24.12</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="39">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="58">
+        <v>6902</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="92">
+        <v>2</v>
+      </c>
+      <c r="F59" s="73">
+        <v>16.87</v>
+      </c>
+      <c r="G59" s="41">
+        <f t="shared" si="0"/>
+        <v>33.74</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="39">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="58">
+        <v>6899</v>
+      </c>
+      <c r="D60" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="92">
+        <v>2</v>
+      </c>
+      <c r="F60" s="73">
+        <v>11.13</v>
+      </c>
+      <c r="G60" s="41">
+        <f t="shared" si="0"/>
+        <v>22.26</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="39">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="58">
+        <v>6895</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="92">
+        <v>2</v>
+      </c>
+      <c r="F61" s="73">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G61" s="41">
+        <f t="shared" si="0"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="39">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="58">
+        <v>6894</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="92">
+        <v>2</v>
+      </c>
+      <c r="F62" s="73">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G62" s="41">
+        <f t="shared" si="0"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="39">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="58">
+        <v>6896</v>
+      </c>
+      <c r="D63" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="92">
+        <v>2</v>
+      </c>
+      <c r="F63" s="73">
+        <v>12.42</v>
+      </c>
+      <c r="G63" s="41">
+        <f t="shared" si="0"/>
+        <v>24.84</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="39">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="58">
+        <v>9756</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="97">
+        <v>2.7</v>
+      </c>
+      <c r="F64" s="73">
+        <v>271.63</v>
+      </c>
+      <c r="G64" s="41">
+        <v>733.41</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="39">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="58">
+        <v>2446</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="92">
+        <v>2</v>
+      </c>
+      <c r="F65" s="73">
+        <v>5.45</v>
+      </c>
+      <c r="G65" s="41">
+        <f t="shared" si="0"/>
+        <v>10.9</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="39">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="19">
+        <v>3921</v>
+      </c>
+      <c r="D66" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="72">
+        <v>2</v>
+      </c>
+      <c r="F66" s="122">
+        <v>2.91</v>
+      </c>
+      <c r="G66" s="41">
+        <f t="shared" si="0"/>
+        <v>5.82</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="19">
+        <v>9676</v>
+      </c>
+      <c r="D67" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="72">
+        <v>2</v>
+      </c>
+      <c r="F67" s="122">
+        <v>3.26</v>
+      </c>
+      <c r="G67" s="41">
+        <f t="shared" si="0"/>
+        <v>6.52</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="39">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="B68" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="19">
+        <v>3920</v>
+      </c>
+      <c r="D68" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="72">
+        <v>2</v>
+      </c>
+      <c r="F68" s="122">
+        <v>3.63</v>
+      </c>
+      <c r="G68" s="41">
+        <f t="shared" si="0"/>
+        <v>7.26</v>
+      </c>
+      <c r="H68" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="39">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="19">
+        <v>6912</v>
+      </c>
+      <c r="D69" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="72">
+        <v>2</v>
+      </c>
+      <c r="F69" s="122">
+        <v>5.34</v>
+      </c>
+      <c r="G69" s="41">
+        <f t="shared" si="0"/>
+        <v>10.68</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="39">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="58">
+        <v>7336</v>
+      </c>
+      <c r="D70" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="92">
+        <v>1</v>
+      </c>
+      <c r="F70" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="G70" s="41">
+        <f t="shared" ref="G70:G99" si="3">E70*F70</f>
+        <v>3.5</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="39">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="58">
+        <v>7337</v>
+      </c>
+      <c r="D71" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="92">
+        <v>1</v>
+      </c>
+      <c r="F71" s="73">
+        <v>6.56</v>
+      </c>
+      <c r="G71" s="41">
+        <f t="shared" si="3"/>
+        <v>6.56</v>
+      </c>
+      <c r="H71" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="39">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="58">
+        <v>6627</v>
+      </c>
+      <c r="D72" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="92">
+        <v>1</v>
+      </c>
+      <c r="F72" s="73">
+        <v>3.58</v>
+      </c>
+      <c r="G72" s="41">
+        <f t="shared" si="3"/>
+        <v>3.58</v>
+      </c>
+      <c r="H72" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="39">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="58">
+        <v>6628</v>
+      </c>
+      <c r="D73" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="92">
+        <v>1</v>
+      </c>
+      <c r="F73" s="73">
+        <v>5.16</v>
+      </c>
+      <c r="G73" s="41">
+        <f t="shared" si="3"/>
+        <v>5.16</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="39">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="58">
+        <v>6629</v>
+      </c>
+      <c r="D74" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="92">
+        <v>1</v>
+      </c>
+      <c r="F74" s="73">
+        <v>6</v>
+      </c>
+      <c r="G74" s="41">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="39">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="58">
+        <v>6630</v>
+      </c>
+      <c r="D75" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="92">
+        <v>1</v>
+      </c>
+      <c r="F75" s="73">
+        <v>7.82</v>
+      </c>
+      <c r="G75" s="41">
+        <f t="shared" si="3"/>
+        <v>7.82</v>
+      </c>
+      <c r="H75" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="39">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="58">
+        <v>6625</v>
+      </c>
+      <c r="D76" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="92">
+        <v>1</v>
+      </c>
+      <c r="F76" s="73">
+        <v>11.23</v>
+      </c>
+      <c r="G76" s="41">
+        <f t="shared" si="3"/>
+        <v>11.23</v>
+      </c>
+      <c r="H76" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="39">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="58">
+        <v>6622</v>
+      </c>
+      <c r="D77" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="92">
+        <v>1</v>
+      </c>
+      <c r="F77" s="73">
+        <v>1.66</v>
+      </c>
+      <c r="G77" s="41">
+        <f t="shared" si="3"/>
+        <v>1.66</v>
+      </c>
+      <c r="H77" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="39">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B78" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="58">
+        <v>1902</v>
+      </c>
+      <c r="D78" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="92">
+        <v>4</v>
+      </c>
+      <c r="F78" s="73">
+        <v>6.34</v>
+      </c>
+      <c r="G78" s="41">
+        <f t="shared" si="3"/>
+        <v>25.36</v>
+      </c>
+      <c r="H78" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="39">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="58">
+        <v>9300</v>
+      </c>
+      <c r="D79" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="92">
+        <v>1</v>
+      </c>
+      <c r="F79" s="73">
+        <v>16.39</v>
+      </c>
+      <c r="G79" s="41">
+        <f t="shared" si="3"/>
+        <v>16.39</v>
+      </c>
+      <c r="H79" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="39">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="58">
+        <v>6890</v>
+      </c>
+      <c r="D80" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="92">
+        <v>2</v>
+      </c>
+      <c r="F80" s="73">
+        <v>10.91</v>
+      </c>
+      <c r="G80" s="41">
+        <f t="shared" si="3"/>
+        <v>21.82</v>
+      </c>
+      <c r="H80" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="39">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="58">
+        <v>6900</v>
+      </c>
+      <c r="D81" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="92">
+        <v>2</v>
+      </c>
+      <c r="F81" s="73">
+        <v>10.91</v>
+      </c>
+      <c r="G81" s="41">
+        <f t="shared" si="3"/>
+        <v>21.82</v>
+      </c>
+      <c r="H81" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="39">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="58">
+        <v>6897</v>
+      </c>
+      <c r="D82" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="92">
+        <v>2</v>
+      </c>
+      <c r="F82" s="73">
+        <v>10.91</v>
+      </c>
+      <c r="G82" s="41">
+        <f t="shared" si="3"/>
+        <v>21.82</v>
+      </c>
+      <c r="H82" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="39">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="58">
+        <v>6638</v>
+      </c>
+      <c r="D83" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="92">
+        <v>1</v>
+      </c>
+      <c r="F83" s="73">
+        <v>10.15</v>
+      </c>
+      <c r="G83" s="41">
+        <f t="shared" si="3"/>
+        <v>10.15</v>
+      </c>
+      <c r="H83" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="39">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="58">
+        <v>6639</v>
+      </c>
+      <c r="D84" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="92">
+        <v>1</v>
+      </c>
+      <c r="F84" s="73">
+        <v>12</v>
+      </c>
+      <c r="G84" s="41">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H84" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="39">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="58">
+        <v>6640</v>
+      </c>
+      <c r="D85" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="92">
+        <v>1</v>
+      </c>
+      <c r="F85" s="73">
+        <v>15.2</v>
+      </c>
+      <c r="G85" s="41">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="H85" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="39">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="58">
+        <v>6641</v>
+      </c>
+      <c r="D86" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="92">
+        <v>1</v>
+      </c>
+      <c r="F86" s="73">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G86" s="41">
+        <f t="shared" si="3"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="39">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="58">
+        <v>6644</v>
+      </c>
+      <c r="D87" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="92">
+        <v>1</v>
+      </c>
+      <c r="F87" s="73">
+        <v>13</v>
+      </c>
+      <c r="G87" s="41">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="39">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="58">
+        <v>6642</v>
+      </c>
+      <c r="D88" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="92">
+        <v>1</v>
+      </c>
+      <c r="F88" s="73">
+        <v>3.74</v>
+      </c>
+      <c r="G88" s="41">
+        <f t="shared" si="3"/>
+        <v>3.74</v>
+      </c>
+      <c r="H88" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="39">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B89" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="58">
+        <v>6643</v>
+      </c>
+      <c r="D89" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="92">
+        <v>1</v>
+      </c>
+      <c r="F89" s="73">
+        <v>5.99</v>
+      </c>
+      <c r="G89" s="41">
+        <f t="shared" si="3"/>
+        <v>5.99</v>
+      </c>
+      <c r="H89" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="39">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B90" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="58">
+        <v>6634</v>
+      </c>
+      <c r="D90" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="92">
+        <v>1</v>
+      </c>
+      <c r="F90" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="G90" s="41">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="H90" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="39">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="58">
+        <v>6635</v>
+      </c>
+      <c r="D91" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="92">
+        <v>1</v>
+      </c>
+      <c r="F91" s="73">
+        <v>3.2</v>
+      </c>
+      <c r="G91" s="41">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="H91" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="39">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="58">
+        <v>7386</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="92">
+        <v>2</v>
+      </c>
+      <c r="F92" s="73">
+        <v>7</v>
+      </c>
+      <c r="G92" s="41">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H92" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="39">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="58">
+        <v>7387</v>
+      </c>
+      <c r="D93" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="92">
+        <v>2</v>
+      </c>
+      <c r="F93" s="73">
+        <v>7.6</v>
+      </c>
+      <c r="G93" s="41">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="H93" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="39">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="58">
+        <v>7388</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="92">
+        <v>2</v>
+      </c>
+      <c r="F94" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="G94" s="41">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H94" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="39">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="58">
+        <v>7389</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="92">
+        <v>2</v>
+      </c>
+      <c r="F95" s="73">
+        <v>6.5</v>
+      </c>
+      <c r="G95" s="41">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H95" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="39">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B96" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="58">
+        <v>7390</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="92">
+        <v>2</v>
+      </c>
+      <c r="F96" s="73">
+        <v>7</v>
+      </c>
+      <c r="G96" s="41">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="39">
+        <f t="shared" ref="A97:A109" si="4">A96+1</f>
+        <v>78</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="58">
+        <v>7391</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="92">
+        <v>2</v>
+      </c>
+      <c r="F97" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G97" s="41">
+        <f t="shared" si="3"/>
+        <v>13.8</v>
+      </c>
+      <c r="H97" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="39">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="58">
+        <v>1905</v>
+      </c>
+      <c r="D98" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="92">
+        <v>2</v>
+      </c>
+      <c r="F98" s="73">
+        <v>8.86</v>
+      </c>
+      <c r="G98" s="41">
+        <f t="shared" si="3"/>
+        <v>17.72</v>
+      </c>
+      <c r="H98" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="39">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="58">
+        <v>8103</v>
+      </c>
+      <c r="D99" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" s="92">
+        <v>25</v>
+      </c>
+      <c r="F99" s="73">
+        <v>23.48</v>
+      </c>
+      <c r="G99" s="41">
+        <v>586.95000000000005</v>
+      </c>
+      <c r="H99" s="44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="39">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="58">
+        <v>3576</v>
+      </c>
+      <c r="D100" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="98">
+        <v>1</v>
+      </c>
+      <c r="F100" s="73">
+        <v>111.55</v>
+      </c>
+      <c r="G100" s="41">
+        <f t="shared" ref="G100:G109" si="5">E100*F100</f>
+        <v>111.55</v>
+      </c>
+      <c r="H100" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="39">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="B101" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="58">
+        <v>3577</v>
+      </c>
+      <c r="D101" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="92">
+        <v>1</v>
+      </c>
+      <c r="F101" s="73">
+        <v>111.55</v>
+      </c>
+      <c r="G101" s="41">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="39">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="58">
+        <v>3578</v>
+      </c>
+      <c r="D102" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="92">
+        <v>1</v>
+      </c>
+      <c r="F102" s="73">
+        <v>120</v>
+      </c>
+      <c r="G102" s="41">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="H102" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="39">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="58">
+        <v>6343</v>
+      </c>
+      <c r="D103" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="92">
+        <v>2</v>
+      </c>
+      <c r="F103" s="73">
+        <v>72.12</v>
+      </c>
+      <c r="G103" s="41">
+        <f t="shared" si="5"/>
+        <v>144.24</v>
+      </c>
+      <c r="H103" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="39">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="B104" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="121">
+        <v>1664</v>
+      </c>
+      <c r="D104" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="120">
+        <v>1</v>
+      </c>
+      <c r="F104" s="122">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G104" s="41">
+        <f t="shared" si="5"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H104" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="39">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="121">
+        <v>1662</v>
+      </c>
+      <c r="D105" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="120">
+        <v>1</v>
+      </c>
+      <c r="F105" s="122">
+        <v>11</v>
+      </c>
+      <c r="G105" s="41">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="H105" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="39">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="B106" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="121">
+        <v>1667</v>
+      </c>
+      <c r="D106" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="120">
+        <v>1</v>
+      </c>
+      <c r="F106" s="122">
+        <v>60.41</v>
+      </c>
+      <c r="G106" s="41">
+        <f t="shared" si="5"/>
+        <v>60.41</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="B107" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="121">
+        <v>1663</v>
+      </c>
+      <c r="D107" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="120">
+        <v>1</v>
+      </c>
+      <c r="F107" s="122">
+        <v>7.45</v>
+      </c>
+      <c r="G107" s="41">
+        <f t="shared" si="5"/>
+        <v>7.45</v>
+      </c>
+      <c r="H107" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="39">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="B108" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" s="121">
+        <v>1665</v>
+      </c>
+      <c r="D108" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="120">
+        <v>1</v>
+      </c>
+      <c r="F108" s="122">
+        <v>6.9</v>
+      </c>
+      <c r="G108" s="41">
+        <f t="shared" si="5"/>
+        <v>6.9</v>
+      </c>
+      <c r="H108" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="43" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="39">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B109" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="121">
+        <v>3606</v>
+      </c>
+      <c r="D109" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="120">
+        <v>1</v>
+      </c>
+      <c r="F109" s="122">
+        <v>2.66</v>
+      </c>
+      <c r="G109" s="41">
+        <f t="shared" si="5"/>
+        <v>2.66</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="104" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="99"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="100">
+        <f>SUM(E20:E103)</f>
+        <v>383.70299999999997</v>
+      </c>
+      <c r="F110" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="102">
+        <v>7033.48</v>
+      </c>
+      <c r="H110" s="103"/>
+    </row>
+    <row r="111" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="106"/>
+      <c r="H112" s="107"/>
+    </row>
+    <row r="113" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="109"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="109"/>
+      <c r="G113" s="109"/>
+      <c r="H113" s="110"/>
+    </row>
+    <row r="114" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="106"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="106"/>
+      <c r="G114" s="106"/>
+      <c r="H114" s="107"/>
+    </row>
+    <row r="115" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="109"/>
+      <c r="E115" s="109"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="109"/>
+      <c r="H115" s="110"/>
+    </row>
+    <row r="116" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="149"/>
+      <c r="E117" s="149"/>
+      <c r="F117" s="112"/>
+      <c r="G117" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="151"/>
+    </row>
+    <row r="118" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" s="147"/>
+    </row>
+    <row r="119" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="74"/>
+      <c r="H119" s="74"/>
+    </row>
+    <row r="120" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" s="149"/>
+      <c r="E120" s="149"/>
+      <c r="F120" s="112"/>
+      <c r="G120" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="151"/>
+    </row>
+    <row r="121" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="147"/>
+    </row>
+    <row r="122" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="149"/>
+      <c r="E122" s="149"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="151"/>
+    </row>
+    <row r="123" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C123" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="147"/>
+    </row>
+    <row r="124" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="149"/>
+      <c r="E124" s="149"/>
+      <c r="F124" s="112"/>
+      <c r="G124" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="151"/>
+    </row>
+    <row r="125" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="147"/>
+    </row>
+    <row r="126" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" s="149"/>
+      <c r="E126" s="149"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="H126" s="151"/>
+    </row>
+    <row r="127" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" s="147"/>
+    </row>
+    <row r="128" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="149" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="149"/>
+      <c r="E128" s="149"/>
+      <c r="F128" s="112"/>
+      <c r="G128" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="H128" s="151"/>
+    </row>
+    <row r="129" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C129" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="147"/>
+    </row>
+    <row r="130" spans="2:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="74"/>
+      <c r="H130" s="74"/>
+    </row>
+    <row r="131" spans="2:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="D131" s="149"/>
+      <c r="E131" s="149"/>
+      <c r="F131" s="112"/>
+      <c r="G131" s="150" t="s">
+        <v>196</v>
+      </c>
+      <c r="H131" s="151"/>
+    </row>
+    <row r="132" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C132" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" s="147"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <mergeCells count="34">
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="80" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="63" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22678FFC-BAB7-444F-9EB6-1B08ECA9D5FE}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="F1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="F2" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+    </row>
+    <row r="15" spans="1:8" s="124" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+    </row>
+    <row r="16" spans="1:8" s="124" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="19">
+        <v>9216</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="23">
+        <v>140</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.48</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" ref="G20:G21" si="0">E20*F20</f>
+        <v>67.2</v>
+      </c>
+      <c r="H20" s="145" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="19">
+        <v>9987</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="72">
+        <v>95</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1.42</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
+        <v>134.9</v>
+      </c>
+      <c r="H21" s="146"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="32">
+        <f>SUM(E20:E21)</f>
+        <v>235</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="33">
+        <f>SUM(G20:G21)</f>
+        <v>202.10000000000002</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="133"/>
+    </row>
+    <row r="30" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="129"/>
+    </row>
+    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="133"/>
+    </row>
+    <row r="33" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="129"/>
+    </row>
+    <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="133"/>
+    </row>
+    <row r="35" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="129"/>
+    </row>
+    <row r="36" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="131" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="133"/>
+    </row>
+    <row r="37" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="129"/>
+    </row>
+    <row r="38" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="133"/>
+    </row>
+    <row r="39" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="129"/>
+    </row>
+    <row r="40" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="133"/>
+    </row>
+    <row r="41" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C41" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="129"/>
+    </row>
+    <row r="42" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="130" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="133"/>
+    </row>
+    <row r="44" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C44" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:E35"/>
     <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>

--- a/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2020.xlsx
+++ b/Участок ремонта форм/Мат. отчет/Акт на списание ТМЦ 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Мат. отчет\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Мат. отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752EA210-2BDD-49E7-9842-4C04B8E2F533}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79E6E9-109C-415B-8D17-806B809D12FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="10" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <sheet name="Март СИЗ" sheetId="15" r:id="rId6"/>
     <sheet name="Апрель" sheetId="16" r:id="rId7"/>
     <sheet name="Апрель СИЗ" sheetId="17" r:id="rId8"/>
+    <sheet name="Май" sheetId="18" r:id="rId9"/>
+    <sheet name="Май СИЗ" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Апрель!$A$19:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Май!$A$19:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Март!$A$19:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Февраль!$A$19:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Январь!$A$19:$H$19</definedName>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="246">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -1247,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1631,35 +1634,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1679,29 +1664,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -1732,6 +1729,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2094,53 +2109,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="F2" s="143" t="s">
+      <c r="A2" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="F2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="51" t="s">
@@ -2151,43 +2166,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2200,28 +2215,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
     </row>
     <row r="15" spans="1:8" s="47" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:8" s="47" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="52"/>
@@ -6109,16 +6124,16 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="131" t="s">
+      <c r="C161" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="D161" s="131"/>
-      <c r="E161" s="131"/>
+      <c r="D161" s="145"/>
+      <c r="E161" s="145"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="133" t="s">
+      <c r="G161" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="H161" s="133"/>
+      <c r="H161" s="146"/>
     </row>
     <row r="162" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="69" t="s">
@@ -6127,10 +6142,10 @@
       <c r="F162" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G162" s="129" t="s">
+      <c r="G162" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H162" s="129"/>
+      <c r="H162" s="143"/>
     </row>
     <row r="163" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="8" t="s">
@@ -6140,16 +6155,16 @@
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="131" t="s">
+      <c r="C164" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="D164" s="131"/>
-      <c r="E164" s="131"/>
+      <c r="D164" s="145"/>
+      <c r="E164" s="145"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="133" t="s">
+      <c r="G164" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="H164" s="133"/>
+      <c r="H164" s="146"/>
     </row>
     <row r="165" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="69" t="s">
@@ -6158,22 +6173,22 @@
       <c r="F165" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G165" s="129" t="s">
+      <c r="G165" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H165" s="129"/>
+      <c r="H165" s="143"/>
     </row>
     <row r="166" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="131" t="s">
+      <c r="C166" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="D166" s="131"/>
-      <c r="E166" s="131"/>
+      <c r="D166" s="145"/>
+      <c r="E166" s="145"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="133" t="s">
+      <c r="G166" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H166" s="133"/>
+      <c r="H166" s="146"/>
     </row>
     <row r="167" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C167" s="69" t="s">
@@ -6182,22 +6197,22 @@
       <c r="F167" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G167" s="129" t="s">
+      <c r="G167" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H167" s="129"/>
+      <c r="H167" s="143"/>
     </row>
     <row r="168" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="131" t="s">
+      <c r="C168" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="D168" s="131"/>
-      <c r="E168" s="131"/>
+      <c r="D168" s="145"/>
+      <c r="E168" s="145"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="133" t="s">
+      <c r="G168" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="H168" s="133"/>
+      <c r="H168" s="146"/>
     </row>
     <row r="169" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="69" t="s">
@@ -6206,25 +6221,25 @@
       <c r="F169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G169" s="129" t="s">
+      <c r="G169" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H169" s="129"/>
+      <c r="H169" s="143"/>
     </row>
     <row r="170" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C170" s="131" t="s">
+      <c r="C170" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="D170" s="131"/>
-      <c r="E170" s="131"/>
+      <c r="D170" s="145"/>
+      <c r="E170" s="145"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="133" t="s">
+      <c r="G170" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="H170" s="133"/>
+      <c r="H170" s="146"/>
     </row>
     <row r="171" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="69" t="s">
@@ -6233,22 +6248,22 @@
       <c r="F171" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G171" s="129" t="s">
+      <c r="G171" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H171" s="129"/>
+      <c r="H171" s="143"/>
     </row>
     <row r="172" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="131" t="s">
+      <c r="C172" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="D172" s="131"/>
-      <c r="E172" s="131"/>
+      <c r="D172" s="145"/>
+      <c r="E172" s="145"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="133" t="s">
+      <c r="G172" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="H172" s="133"/>
+      <c r="H172" s="146"/>
     </row>
     <row r="173" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C173" s="69" t="s">
@@ -6257,10 +6272,10 @@
       <c r="F173" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G173" s="129" t="s">
+      <c r="G173" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H173" s="129"/>
+      <c r="H173" s="143"/>
     </row>
     <row r="174" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F174" s="1"/>
@@ -6270,16 +6285,16 @@
       <c r="B175" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C175" s="130" t="s">
+      <c r="C175" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="D175" s="131"/>
-      <c r="E175" s="131"/>
+      <c r="D175" s="145"/>
+      <c r="E175" s="145"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="132" t="s">
+      <c r="G175" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="H175" s="133"/>
+      <c r="H175" s="146"/>
     </row>
     <row r="176" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C176" s="69" t="s">
@@ -6288,38 +6303,14 @@
       <c r="F176" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G176" s="129" t="s">
+      <c r="G176" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H176" s="129"/>
+      <c r="H176" s="143"/>
     </row>
   </sheetData>
   <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="34">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="G168:H168"/>
     <mergeCell ref="G173:H173"/>
     <mergeCell ref="C175:E175"/>
     <mergeCell ref="G175:H175"/>
@@ -6330,9 +6321,602 @@
     <mergeCell ref="G171:H171"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="81" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF82004-D5C1-4F86-AC2A-56D9EE934694}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="F1" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="F2" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+    </row>
+    <row r="15" spans="1:8" s="130" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+    </row>
+    <row r="16" spans="1:8" s="130" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="10.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>1</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="19">
+        <v>9216</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="23">
+        <v>120</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" ref="G20:G21" si="0">E20*F20</f>
+        <v>67.2</v>
+      </c>
+      <c r="H20" s="149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="19">
+        <v>3930</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="72">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <v>5.17</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
+        <v>15.51</v>
+      </c>
+      <c r="H21" s="150"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="32">
+        <f>SUM(E20:E21)</f>
+        <v>123</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="33">
+        <f>SUM(G20:G21)</f>
+        <v>82.710000000000008</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="145" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="146"/>
+    </row>
+    <row r="30" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="143"/>
+    </row>
+    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="146"/>
+    </row>
+    <row r="33" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="143"/>
+    </row>
+    <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="146"/>
+    </row>
+    <row r="35" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="143"/>
+    </row>
+    <row r="36" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="145" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="146"/>
+    </row>
+    <row r="37" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="143"/>
+    </row>
+    <row r="38" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="145" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="146"/>
+    </row>
+    <row r="39" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="143"/>
+    </row>
+    <row r="40" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" s="146"/>
+    </row>
+    <row r="41" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C41" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="143"/>
+    </row>
+    <row r="42" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="146"/>
+    </row>
+    <row r="44" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C44" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="143"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6361,53 +6945,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="F2" s="143" t="s">
+      <c r="A2" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="F2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
@@ -6418,43 +7002,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6466,28 +7050,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:8" s="49" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -6579,7 +7163,7 @@
         <f t="shared" ref="G20:G21" si="0">E20*F20</f>
         <v>61.099999999999994</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H20" s="149" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6606,7 +7190,7 @@
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="H21" s="146"/>
+      <c r="H21" s="150"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
@@ -6680,16 +7264,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="133" t="s">
+      <c r="G29" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="133"/>
+      <c r="H29" s="146"/>
     </row>
     <row r="30" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="69" t="s">
@@ -6698,10 +7282,10 @@
       <c r="F30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="129" t="s">
+      <c r="G30" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="129"/>
+      <c r="H30" s="143"/>
     </row>
     <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
@@ -6710,16 +7294,16 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="133" t="s">
+      <c r="G32" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="133"/>
+      <c r="H32" s="146"/>
     </row>
     <row r="33" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="69" t="s">
@@ -6728,22 +7312,22 @@
       <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="129"/>
+      <c r="H33" s="143"/>
     </row>
     <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="133"/>
+      <c r="H34" s="146"/>
     </row>
     <row r="35" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
@@ -6752,22 +7336,22 @@
       <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="129" t="s">
+      <c r="G35" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="129"/>
+      <c r="H35" s="143"/>
     </row>
     <row r="36" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="131" t="s">
+      <c r="C36" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="133" t="s">
+      <c r="G36" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="133"/>
+      <c r="H36" s="146"/>
     </row>
     <row r="37" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="69" t="s">
@@ -6776,25 +7360,25 @@
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="129" t="s">
+      <c r="G37" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="129"/>
+      <c r="H37" s="143"/>
     </row>
     <row r="38" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="133" t="s">
+      <c r="G38" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="133"/>
+      <c r="H38" s="146"/>
     </row>
     <row r="39" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="69" t="s">
@@ -6803,22 +7387,22 @@
       <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="129" t="s">
+      <c r="G39" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="129"/>
+      <c r="H39" s="143"/>
     </row>
     <row r="40" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="131" t="s">
+      <c r="C40" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="133" t="s">
+      <c r="G40" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="133"/>
+      <c r="H40" s="146"/>
     </row>
     <row r="41" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C41" s="69" t="s">
@@ -6827,10 +7411,10 @@
       <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="129" t="s">
+      <c r="G41" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="129"/>
+      <c r="H41" s="143"/>
     </row>
     <row r="42" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
@@ -6839,16 +7423,16 @@
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="132" t="s">
+      <c r="G43" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="H43" s="133"/>
+      <c r="H43" s="146"/>
     </row>
     <row r="44" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C44" s="69" t="s">
@@ -6857,38 +7441,13 @@
       <c r="F44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="129"/>
+      <c r="H44" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="G43:H43"/>
@@ -6899,6 +7458,31 @@
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -6931,53 +7515,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="F1" s="155" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="F2" s="157" t="s">
+      <c r="A2" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="F2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
     </row>
     <row r="6" spans="1:8" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="77" t="s">
@@ -6988,43 +7572,43 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7037,28 +7621,28 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
     </row>
     <row r="15" spans="1:8" s="78" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
     </row>
     <row r="16" spans="1:8" s="78" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="79"/>
@@ -10385,16 +10969,16 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="149" t="s">
+      <c r="C141" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="D141" s="149"/>
-      <c r="E141" s="149"/>
+      <c r="D141" s="163"/>
+      <c r="E141" s="163"/>
       <c r="F141" s="112"/>
-      <c r="G141" s="151" t="s">
+      <c r="G141" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="H141" s="151"/>
+      <c r="H141" s="164"/>
     </row>
     <row r="142" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="113" t="s">
@@ -10403,10 +10987,10 @@
       <c r="F142" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="147" t="s">
+      <c r="G142" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H142" s="147"/>
+      <c r="H142" s="161"/>
     </row>
     <row r="143" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="111" t="s">
@@ -10416,16 +11000,16 @@
       <c r="H143" s="74"/>
     </row>
     <row r="144" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="149" t="s">
+      <c r="C144" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="D144" s="149"/>
-      <c r="E144" s="149"/>
+      <c r="D144" s="163"/>
+      <c r="E144" s="163"/>
       <c r="F144" s="112"/>
-      <c r="G144" s="151" t="s">
+      <c r="G144" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H144" s="151"/>
+      <c r="H144" s="164"/>
     </row>
     <row r="145" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="113" t="s">
@@ -10434,22 +11018,22 @@
       <c r="F145" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G145" s="147" t="s">
+      <c r="G145" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H145" s="147"/>
+      <c r="H145" s="161"/>
     </row>
     <row r="146" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="149" t="s">
+      <c r="C146" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="D146" s="149"/>
-      <c r="E146" s="149"/>
+      <c r="D146" s="163"/>
+      <c r="E146" s="163"/>
       <c r="F146" s="112"/>
-      <c r="G146" s="151" t="s">
+      <c r="G146" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="H146" s="151"/>
+      <c r="H146" s="164"/>
     </row>
     <row r="147" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C147" s="113" t="s">
@@ -10458,22 +11042,22 @@
       <c r="F147" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G147" s="147" t="s">
+      <c r="G147" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H147" s="147"/>
+      <c r="H147" s="161"/>
     </row>
     <row r="148" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="149" t="s">
+      <c r="C148" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="D148" s="149"/>
-      <c r="E148" s="149"/>
+      <c r="D148" s="163"/>
+      <c r="E148" s="163"/>
       <c r="F148" s="112"/>
-      <c r="G148" s="151" t="s">
+      <c r="G148" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="H148" s="151"/>
+      <c r="H148" s="164"/>
     </row>
     <row r="149" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="113" t="s">
@@ -10482,25 +11066,25 @@
       <c r="F149" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G149" s="147" t="s">
+      <c r="G149" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H149" s="147"/>
+      <c r="H149" s="161"/>
     </row>
     <row r="150" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C150" s="149" t="s">
+      <c r="C150" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="D150" s="149"/>
-      <c r="E150" s="149"/>
+      <c r="D150" s="163"/>
+      <c r="E150" s="163"/>
       <c r="F150" s="112"/>
-      <c r="G150" s="151" t="s">
+      <c r="G150" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="H150" s="151"/>
+      <c r="H150" s="164"/>
     </row>
     <row r="151" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="113" t="s">
@@ -10509,22 +11093,22 @@
       <c r="F151" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="147" t="s">
+      <c r="G151" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H151" s="147"/>
+      <c r="H151" s="161"/>
     </row>
     <row r="152" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="149" t="s">
+      <c r="C152" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="D152" s="149"/>
-      <c r="E152" s="149"/>
+      <c r="D152" s="163"/>
+      <c r="E152" s="163"/>
       <c r="F152" s="112"/>
-      <c r="G152" s="151" t="s">
+      <c r="G152" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="H152" s="151"/>
+      <c r="H152" s="164"/>
     </row>
     <row r="153" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C153" s="113" t="s">
@@ -10533,10 +11117,10 @@
       <c r="F153" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G153" s="147" t="s">
+      <c r="G153" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H153" s="147"/>
+      <c r="H153" s="161"/>
     </row>
     <row r="154" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F154" s="74"/>
@@ -10546,16 +11130,16 @@
       <c r="B155" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="148" t="s">
+      <c r="C155" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="D155" s="149"/>
-      <c r="E155" s="149"/>
+      <c r="D155" s="163"/>
+      <c r="E155" s="163"/>
       <c r="F155" s="112"/>
-      <c r="G155" s="150" t="s">
+      <c r="G155" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="H155" s="151"/>
+      <c r="H155" s="164"/>
     </row>
     <row r="156" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C156" s="113" t="s">
@@ -10564,14 +11148,36 @@
       <c r="F156" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G156" s="147" t="s">
+      <c r="G156" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H156" s="147"/>
+      <c r="H156" s="161"/>
     </row>
   </sheetData>
   <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="34">
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="G144:H144"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
@@ -10584,28 +11190,6 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="G152:H152"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="81" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -10637,53 +11221,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="F2" s="143" t="s">
+      <c r="A2" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="F2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
@@ -10694,43 +11278,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10742,28 +11326,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
     </row>
     <row r="15" spans="1:8" s="68" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:8" s="68" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -10855,7 +11439,7 @@
         <f t="shared" ref="G20:G23" si="0">E20*F20</f>
         <v>67.2</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H20" s="149" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10883,7 +11467,7 @@
         <f t="shared" si="0"/>
         <v>9.7799999999999994</v>
       </c>
-      <c r="H21" s="146"/>
+      <c r="H21" s="150"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
@@ -10909,7 +11493,7 @@
         <f t="shared" si="0"/>
         <v>51.7</v>
       </c>
-      <c r="H22" s="146"/>
+      <c r="H22" s="150"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -10935,7 +11519,7 @@
         <f t="shared" si="0"/>
         <v>222.48000000000002</v>
       </c>
-      <c r="H23" s="146"/>
+      <c r="H23" s="150"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
@@ -11009,16 +11593,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="133" t="s">
+      <c r="G31" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="133"/>
+      <c r="H31" s="146"/>
     </row>
     <row r="32" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="69" t="s">
@@ -11027,10 +11611,10 @@
       <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="129" t="s">
+      <c r="G32" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="129"/>
+      <c r="H32" s="143"/>
     </row>
     <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
@@ -11039,16 +11623,16 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="133"/>
+      <c r="H34" s="146"/>
     </row>
     <row r="35" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
@@ -11057,22 +11641,22 @@
       <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="129" t="s">
+      <c r="G35" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="129"/>
+      <c r="H35" s="143"/>
     </row>
     <row r="36" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="131" t="s">
+      <c r="C36" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="133" t="s">
+      <c r="G36" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="133"/>
+      <c r="H36" s="146"/>
     </row>
     <row r="37" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C37" s="69" t="s">
@@ -11081,22 +11665,22 @@
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="129" t="s">
+      <c r="G37" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="129"/>
+      <c r="H37" s="143"/>
     </row>
     <row r="38" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="133" t="s">
+      <c r="G38" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="133"/>
+      <c r="H38" s="146"/>
     </row>
     <row r="39" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="69" t="s">
@@ -11105,25 +11689,25 @@
       <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="129" t="s">
+      <c r="G39" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="129"/>
+      <c r="H39" s="143"/>
     </row>
     <row r="40" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="131" t="s">
+      <c r="C40" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="133" t="s">
+      <c r="G40" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="133"/>
+      <c r="H40" s="146"/>
     </row>
     <row r="41" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="69" t="s">
@@ -11132,22 +11716,22 @@
       <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="129" t="s">
+      <c r="G41" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="129"/>
+      <c r="H41" s="143"/>
     </row>
     <row r="42" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="130" t="s">
+      <c r="C42" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="133" t="s">
+      <c r="G42" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="133"/>
+      <c r="H42" s="146"/>
     </row>
     <row r="43" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C43" s="69" t="s">
@@ -11156,10 +11740,10 @@
       <c r="F43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="129" t="s">
+      <c r="G43" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="129"/>
+      <c r="H43" s="143"/>
     </row>
     <row r="44" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
@@ -11168,16 +11752,16 @@
       <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="130" t="s">
+      <c r="C45" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="132" t="s">
+      <c r="G45" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="H45" s="133"/>
+      <c r="H45" s="146"/>
     </row>
     <row r="46" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C46" s="69" t="s">
@@ -11186,19 +11770,29 @@
       <c r="F46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="129" t="s">
+      <c r="G46" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="129"/>
+      <c r="H46" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="F5:H5"/>
@@ -11212,22 +11806,12 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -11260,53 +11844,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="F1" s="155" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="F2" s="157" t="s">
+      <c r="A2" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="F2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
     </row>
     <row r="6" spans="1:8" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="77" t="s">
@@ -11317,43 +11901,43 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11366,28 +11950,28 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
     </row>
     <row r="15" spans="1:8" s="119" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
     </row>
     <row r="16" spans="1:8" s="119" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="79"/>
@@ -14576,16 +15160,16 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="149" t="s">
+      <c r="C136" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="D136" s="149"/>
-      <c r="E136" s="149"/>
+      <c r="D136" s="163"/>
+      <c r="E136" s="163"/>
       <c r="F136" s="112"/>
-      <c r="G136" s="151" t="s">
+      <c r="G136" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="H136" s="151"/>
+      <c r="H136" s="164"/>
     </row>
     <row r="137" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="113" t="s">
@@ -14594,10 +15178,10 @@
       <c r="F137" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G137" s="147" t="s">
+      <c r="G137" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H137" s="147"/>
+      <c r="H137" s="161"/>
     </row>
     <row r="138" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="111" t="s">
@@ -14607,16 +15191,16 @@
       <c r="H138" s="74"/>
     </row>
     <row r="139" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="149" t="s">
+      <c r="C139" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="D139" s="149"/>
-      <c r="E139" s="149"/>
+      <c r="D139" s="163"/>
+      <c r="E139" s="163"/>
       <c r="F139" s="112"/>
-      <c r="G139" s="151" t="s">
+      <c r="G139" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H139" s="151"/>
+      <c r="H139" s="164"/>
     </row>
     <row r="140" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="113" t="s">
@@ -14625,22 +15209,22 @@
       <c r="F140" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G140" s="147" t="s">
+      <c r="G140" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="147"/>
+      <c r="H140" s="161"/>
     </row>
     <row r="141" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="149" t="s">
+      <c r="C141" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="D141" s="149"/>
-      <c r="E141" s="149"/>
+      <c r="D141" s="163"/>
+      <c r="E141" s="163"/>
       <c r="F141" s="112"/>
-      <c r="G141" s="151" t="s">
+      <c r="G141" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="H141" s="151"/>
+      <c r="H141" s="164"/>
     </row>
     <row r="142" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C142" s="113" t="s">
@@ -14649,22 +15233,22 @@
       <c r="F142" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G142" s="147" t="s">
+      <c r="G142" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H142" s="147"/>
+      <c r="H142" s="161"/>
     </row>
     <row r="143" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C143" s="149" t="s">
+      <c r="C143" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="D143" s="149"/>
-      <c r="E143" s="149"/>
+      <c r="D143" s="163"/>
+      <c r="E143" s="163"/>
       <c r="F143" s="112"/>
-      <c r="G143" s="151" t="s">
+      <c r="G143" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="H143" s="151"/>
+      <c r="H143" s="164"/>
     </row>
     <row r="144" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="113" t="s">
@@ -14673,25 +15257,25 @@
       <c r="F144" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G144" s="147" t="s">
+      <c r="G144" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H144" s="147"/>
+      <c r="H144" s="161"/>
     </row>
     <row r="145" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C145" s="149" t="s">
+      <c r="C145" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="D145" s="149"/>
-      <c r="E145" s="149"/>
+      <c r="D145" s="163"/>
+      <c r="E145" s="163"/>
       <c r="F145" s="112"/>
-      <c r="G145" s="151" t="s">
+      <c r="G145" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="H145" s="151"/>
+      <c r="H145" s="164"/>
     </row>
     <row r="146" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="113" t="s">
@@ -14700,22 +15284,22 @@
       <c r="F146" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G146" s="147" t="s">
+      <c r="G146" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H146" s="147"/>
+      <c r="H146" s="161"/>
     </row>
     <row r="147" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="149" t="s">
+      <c r="C147" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="D147" s="149"/>
-      <c r="E147" s="149"/>
+      <c r="D147" s="163"/>
+      <c r="E147" s="163"/>
       <c r="F147" s="112"/>
-      <c r="G147" s="151" t="s">
+      <c r="G147" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="H147" s="151"/>
+      <c r="H147" s="164"/>
     </row>
     <row r="148" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C148" s="113" t="s">
@@ -14724,10 +15308,10 @@
       <c r="F148" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G148" s="147" t="s">
+      <c r="G148" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H148" s="147"/>
+      <c r="H148" s="161"/>
     </row>
     <row r="149" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F149" s="74"/>
@@ -14737,16 +15321,16 @@
       <c r="B150" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="148" t="s">
+      <c r="C150" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="D150" s="149"/>
-      <c r="E150" s="149"/>
+      <c r="D150" s="163"/>
+      <c r="E150" s="163"/>
       <c r="F150" s="112"/>
-      <c r="G150" s="150" t="s">
+      <c r="G150" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="H150" s="151"/>
+      <c r="H150" s="164"/>
     </row>
     <row r="151" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C151" s="113" t="s">
@@ -14755,36 +15339,14 @@
       <c r="F151" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G151" s="147" t="s">
+      <c r="G151" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H151" s="147"/>
+      <c r="H151" s="161"/>
     </row>
   </sheetData>
   <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="34">
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="G139:H139"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
@@ -14797,6 +15359,28 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="G147:H147"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="80" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -14832,53 +15416,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="F2" s="143" t="s">
+      <c r="A2" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="F2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
@@ -14889,43 +15473,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -14937,28 +15521,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
     </row>
     <row r="15" spans="1:8" s="117" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:8" s="117" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -15050,7 +15634,7 @@
         <f t="shared" ref="G20:G22" si="0">E20*F20</f>
         <v>67.2</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H20" s="149" t="s">
         <v>108</v>
       </c>
     </row>
@@ -15077,7 +15661,7 @@
         <f t="shared" si="0"/>
         <v>5.17</v>
       </c>
-      <c r="H21" s="146"/>
+      <c r="H21" s="150"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
@@ -15102,7 +15686,7 @@
         <f t="shared" si="0"/>
         <v>188.1</v>
       </c>
-      <c r="H22" s="146"/>
+      <c r="H22" s="150"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
@@ -15176,16 +15760,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="133" t="s">
+      <c r="G30" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="133"/>
+      <c r="H30" s="146"/>
     </row>
     <row r="31" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="69" t="s">
@@ -15194,10 +15778,10 @@
       <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="129" t="s">
+      <c r="G31" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="129"/>
+      <c r="H31" s="143"/>
     </row>
     <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
@@ -15206,16 +15790,16 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="133" t="s">
+      <c r="G33" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="133"/>
+      <c r="H33" s="146"/>
     </row>
     <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="69" t="s">
@@ -15224,22 +15808,22 @@
       <c r="F34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="129"/>
+      <c r="H34" s="143"/>
     </row>
     <row r="35" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="131" t="s">
+      <c r="C35" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="133" t="s">
+      <c r="G35" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="133"/>
+      <c r="H35" s="146"/>
     </row>
     <row r="36" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C36" s="69" t="s">
@@ -15248,22 +15832,22 @@
       <c r="F36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="129" t="s">
+      <c r="G36" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="129"/>
+      <c r="H36" s="143"/>
     </row>
     <row r="37" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="131" t="s">
+      <c r="C37" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="133" t="s">
+      <c r="G37" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="133"/>
+      <c r="H37" s="146"/>
     </row>
     <row r="38" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="69" t="s">
@@ -15272,25 +15856,25 @@
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="129" t="s">
+      <c r="G38" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="129"/>
+      <c r="H38" s="143"/>
     </row>
     <row r="39" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="133" t="s">
+      <c r="G39" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="H39" s="133"/>
+      <c r="H39" s="146"/>
     </row>
     <row r="40" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="69" t="s">
@@ -15299,22 +15883,22 @@
       <c r="F40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="129" t="s">
+      <c r="G40" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="129"/>
+      <c r="H40" s="143"/>
     </row>
     <row r="41" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="133" t="s">
+      <c r="G41" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="133"/>
+      <c r="H41" s="146"/>
     </row>
     <row r="42" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C42" s="69" t="s">
@@ -15323,10 +15907,10 @@
       <c r="F42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="129" t="s">
+      <c r="G42" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="129"/>
+      <c r="H42" s="143"/>
     </row>
     <row r="43" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="1"/>
@@ -15335,16 +15919,16 @@
       <c r="B44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="132" t="s">
+      <c r="G44" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="H44" s="133"/>
+      <c r="H44" s="146"/>
     </row>
     <row r="45" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C45" s="69" t="s">
@@ -15353,29 +15937,19 @@
       <c r="F45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="129" t="s">
+      <c r="G45" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="129"/>
+      <c r="H45" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F5:H5"/>
@@ -15389,12 +15963,22 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -15409,7 +15993,7 @@
   </sheetPr>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
@@ -15427,53 +16011,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="F1" s="155" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="F2" s="157" t="s">
+      <c r="A2" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="F2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
     </row>
     <row r="6" spans="1:8" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="77" t="s">
@@ -15484,43 +16068,43 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -15533,28 +16117,28 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
     </row>
     <row r="15" spans="1:8" s="126" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
     </row>
     <row r="16" spans="1:8" s="126" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="79"/>
@@ -17043,7 +17627,7 @@
         <v>3.5</v>
       </c>
       <c r="G70" s="41">
-        <f t="shared" ref="G70:G99" si="3">E70*F70</f>
+        <f t="shared" ref="G70:G98" si="3">E70*F70</f>
         <v>3.5</v>
       </c>
       <c r="H70" s="45" t="s">
@@ -18208,16 +18792,16 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="149" t="s">
+      <c r="C117" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="D117" s="149"/>
-      <c r="E117" s="149"/>
+      <c r="D117" s="163"/>
+      <c r="E117" s="163"/>
       <c r="F117" s="112"/>
-      <c r="G117" s="151" t="s">
+      <c r="G117" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="H117" s="151"/>
+      <c r="H117" s="164"/>
     </row>
     <row r="118" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="113" t="s">
@@ -18226,10 +18810,10 @@
       <c r="F118" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G118" s="147" t="s">
+      <c r="G118" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H118" s="147"/>
+      <c r="H118" s="161"/>
     </row>
     <row r="119" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="111" t="s">
@@ -18239,16 +18823,16 @@
       <c r="H119" s="74"/>
     </row>
     <row r="120" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="149" t="s">
+      <c r="C120" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="D120" s="149"/>
-      <c r="E120" s="149"/>
+      <c r="D120" s="163"/>
+      <c r="E120" s="163"/>
       <c r="F120" s="112"/>
-      <c r="G120" s="151" t="s">
+      <c r="G120" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="H120" s="151"/>
+      <c r="H120" s="164"/>
     </row>
     <row r="121" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="113" t="s">
@@ -18257,22 +18841,22 @@
       <c r="F121" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G121" s="147" t="s">
+      <c r="G121" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H121" s="147"/>
+      <c r="H121" s="161"/>
     </row>
     <row r="122" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="149" t="s">
+      <c r="C122" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="149"/>
-      <c r="E122" s="149"/>
+      <c r="D122" s="163"/>
+      <c r="E122" s="163"/>
       <c r="F122" s="112"/>
-      <c r="G122" s="151" t="s">
+      <c r="G122" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="H122" s="151"/>
+      <c r="H122" s="164"/>
     </row>
     <row r="123" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C123" s="113" t="s">
@@ -18281,22 +18865,22 @@
       <c r="F123" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G123" s="147" t="s">
+      <c r="G123" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="147"/>
+      <c r="H123" s="161"/>
     </row>
     <row r="124" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="149" t="s">
+      <c r="C124" s="163" t="s">
         <v>135</v>
       </c>
-      <c r="D124" s="149"/>
-      <c r="E124" s="149"/>
+      <c r="D124" s="163"/>
+      <c r="E124" s="163"/>
       <c r="F124" s="112"/>
-      <c r="G124" s="151" t="s">
+      <c r="G124" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="H124" s="151"/>
+      <c r="H124" s="164"/>
     </row>
     <row r="125" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="113" t="s">
@@ -18305,25 +18889,25 @@
       <c r="F125" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G125" s="147" t="s">
+      <c r="G125" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H125" s="147"/>
+      <c r="H125" s="161"/>
     </row>
     <row r="126" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C126" s="149" t="s">
+      <c r="C126" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="D126" s="149"/>
-      <c r="E126" s="149"/>
+      <c r="D126" s="163"/>
+      <c r="E126" s="163"/>
       <c r="F126" s="112"/>
-      <c r="G126" s="151" t="s">
+      <c r="G126" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="H126" s="151"/>
+      <c r="H126" s="164"/>
     </row>
     <row r="127" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="113" t="s">
@@ -18332,22 +18916,22 @@
       <c r="F127" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G127" s="147" t="s">
+      <c r="G127" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="147"/>
+      <c r="H127" s="161"/>
     </row>
     <row r="128" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="149" t="s">
+      <c r="C128" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="149"/>
-      <c r="E128" s="149"/>
+      <c r="D128" s="163"/>
+      <c r="E128" s="163"/>
       <c r="F128" s="112"/>
-      <c r="G128" s="151" t="s">
+      <c r="G128" s="164" t="s">
         <v>139</v>
       </c>
-      <c r="H128" s="151"/>
+      <c r="H128" s="164"/>
     </row>
     <row r="129" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C129" s="113" t="s">
@@ -18356,10 +18940,10 @@
       <c r="F129" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G129" s="147" t="s">
+      <c r="G129" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H129" s="147"/>
+      <c r="H129" s="161"/>
     </row>
     <row r="130" spans="2:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F130" s="74"/>
@@ -18369,16 +18953,16 @@
       <c r="B131" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C131" s="148" t="s">
+      <c r="C131" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="D131" s="149"/>
-      <c r="E131" s="149"/>
+      <c r="D131" s="163"/>
+      <c r="E131" s="163"/>
       <c r="F131" s="112"/>
-      <c r="G131" s="150" t="s">
+      <c r="G131" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="H131" s="151"/>
+      <c r="H131" s="164"/>
     </row>
     <row r="132" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C132" s="113" t="s">
@@ -18387,36 +18971,14 @@
       <c r="F132" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G132" s="147" t="s">
+      <c r="G132" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="H132" s="147"/>
+      <c r="H132" s="161"/>
     </row>
   </sheetData>
   <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="34">
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:H120"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
@@ -18429,6 +18991,28 @@
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="G128:H128"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="80" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
@@ -18463,53 +19047,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="F1" s="141" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="F1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="F2" s="143" t="s">
+      <c r="A2" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="F2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="2" t="s">
@@ -18520,43 +19104,43 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
     </row>
     <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -18568,28 +19152,28 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
     </row>
     <row r="15" spans="1:8" s="124" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="139" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:8" s="124" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="25"/>
@@ -18681,7 +19265,7 @@
         <f t="shared" ref="G20:G21" si="0">E20*F20</f>
         <v>67.2</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H20" s="149" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18708,7 +19292,7 @@
         <f t="shared" si="0"/>
         <v>134.9</v>
       </c>
-      <c r="H21" s="146"/>
+      <c r="H21" s="150"/>
     </row>
     <row r="22" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
@@ -18782,16 +19366,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="133" t="s">
+      <c r="G29" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="133"/>
+      <c r="H29" s="146"/>
     </row>
     <row r="30" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="69" t="s">
@@ -18800,10 +19384,10 @@
       <c r="F30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="129" t="s">
+      <c r="G30" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="129"/>
+      <c r="H30" s="143"/>
     </row>
     <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
@@ -18812,16 +19396,16 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="133" t="s">
+      <c r="G32" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="133"/>
+      <c r="H32" s="146"/>
     </row>
     <row r="33" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="69" t="s">
@@ -18830,22 +19414,22 @@
       <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="129"/>
+      <c r="H33" s="143"/>
     </row>
     <row r="34" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="133"/>
+      <c r="H34" s="146"/>
     </row>
     <row r="35" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
@@ -18854,22 +19438,22 @@
       <c r="F35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="129" t="s">
+      <c r="G35" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="129"/>
+      <c r="H35" s="143"/>
     </row>
     <row r="36" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="131" t="s">
+      <c r="C36" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="133" t="s">
+      <c r="G36" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="133"/>
+      <c r="H36" s="146"/>
     </row>
     <row r="37" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="69" t="s">
@@ -18878,25 +19462,25 @@
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="129" t="s">
+      <c r="G37" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="129"/>
+      <c r="H37" s="143"/>
     </row>
     <row r="38" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="133" t="s">
+      <c r="G38" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="133"/>
+      <c r="H38" s="146"/>
     </row>
     <row r="39" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="69" t="s">
@@ -18905,22 +19489,22 @@
       <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="129" t="s">
+      <c r="G39" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="129"/>
+      <c r="H39" s="143"/>
     </row>
     <row r="40" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="130" t="s">
+      <c r="C40" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="133" t="s">
+      <c r="G40" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="133"/>
+      <c r="H40" s="146"/>
     </row>
     <row r="41" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C41" s="69" t="s">
@@ -18929,10 +19513,10 @@
       <c r="F41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="129" t="s">
+      <c r="G41" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="129"/>
+      <c r="H41" s="143"/>
     </row>
     <row r="42" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
@@ -18941,16 +19525,16 @@
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="132" t="s">
+      <c r="G43" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="H43" s="133"/>
+      <c r="H43" s="146"/>
     </row>
     <row r="44" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C44" s="69" t="s">
@@ -18959,29 +19543,19 @@
       <c r="F44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="129"/>
+      <c r="H44" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="F5:H5"/>
@@ -18995,14 +19569,3061 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0E515C-02FC-4DE2-BA5A-BB9109AB1A8F}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:H132"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="140" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="43" style="74" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="74" customWidth="1"/>
+    <col min="6" max="6" width="15" style="76" customWidth="1"/>
+    <col min="7" max="7" width="20" style="74" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="80" customWidth="1"/>
+    <col min="9" max="16384" width="10.5" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="F1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="F2" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+    </row>
+    <row r="3" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="H3" s="74"/>
+    </row>
+    <row r="4" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+    </row>
+    <row r="5" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+    </row>
+    <row r="6" spans="1:8" s="74" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="H10" s="74"/>
+    </row>
+    <row r="11" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="H11" s="74"/>
+    </row>
+    <row r="12" spans="1:8" s="74" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="76"/>
+      <c r="H12" s="74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:8" s="74" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+    </row>
+    <row r="15" spans="1:8" s="132" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+    </row>
+    <row r="16" spans="1:8" s="132" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="79"/>
+      <c r="H16" s="80"/>
+    </row>
+    <row r="17" spans="1:8" s="85" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="85" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="86"/>
+      <c r="B18" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="1:8" s="91" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
+        <v>1</v>
+      </c>
+      <c r="B19" s="89">
+        <v>2</v>
+      </c>
+      <c r="C19" s="89">
+        <v>3</v>
+      </c>
+      <c r="D19" s="89">
+        <v>4</v>
+      </c>
+      <c r="E19" s="89">
+        <v>5</v>
+      </c>
+      <c r="F19" s="89">
+        <v>6</v>
+      </c>
+      <c r="G19" s="89">
+        <v>7</v>
+      </c>
+      <c r="H19" s="90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
+        <v>1</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="58">
+        <v>4234</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="92">
+        <v>10</v>
+      </c>
+      <c r="F20" s="73">
+        <v>179.24</v>
+      </c>
+      <c r="G20" s="41">
+        <f>E20*F20</f>
+        <v>1792.4</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="39">
+        <f>A20+1</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="58">
+        <v>7961</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="92">
+        <v>60</v>
+      </c>
+      <c r="F21" s="73">
+        <v>5.76</v>
+      </c>
+      <c r="G21" s="41">
+        <f>E21*F21</f>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="39">
+        <f>A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="58">
+        <v>6385</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="92">
+        <v>40</v>
+      </c>
+      <c r="F22" s="73">
+        <v>5.76</v>
+      </c>
+      <c r="G22" s="41">
+        <f t="shared" ref="G22:G85" si="0">E22*F22</f>
+        <v>230.39999999999998</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="39">
+        <f>A22+1</f>
+        <v>4</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="58">
+        <v>8877</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="57">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40">
+        <v>28.41</v>
+      </c>
+      <c r="G23" s="41">
+        <f t="shared" si="0"/>
+        <v>28.41</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <f t="shared" ref="A24:A87" si="1">A23+1</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="58">
+        <v>4232</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="92">
+        <v>10</v>
+      </c>
+      <c r="F24" s="73">
+        <v>31.93</v>
+      </c>
+      <c r="G24" s="41">
+        <f t="shared" si="0"/>
+        <v>319.3</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="58">
+        <v>4233</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="92">
+        <v>20</v>
+      </c>
+      <c r="F25" s="73">
+        <v>31.93</v>
+      </c>
+      <c r="G25" s="41">
+        <f t="shared" si="0"/>
+        <v>638.6</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="39">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="58">
+        <v>4327</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="92">
+        <v>10</v>
+      </c>
+      <c r="F26" s="73">
+        <v>7.49</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" si="0"/>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="39">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="58">
+        <v>4331</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="92">
+        <v>10</v>
+      </c>
+      <c r="F27" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="G27" s="41">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="39">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="58">
+        <v>8857</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="92">
+        <v>10</v>
+      </c>
+      <c r="F28" s="73">
+        <v>6.51</v>
+      </c>
+      <c r="G28" s="41">
+        <f t="shared" si="0"/>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="58">
+        <v>9681</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="92">
+        <v>10</v>
+      </c>
+      <c r="F29" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="G29" s="41">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="39">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="58">
+        <v>4328</v>
+      </c>
+      <c r="D30" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="92">
+        <v>10</v>
+      </c>
+      <c r="F30" s="73">
+        <v>9.56</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" si="0"/>
+        <v>95.600000000000009</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="39">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="58">
+        <v>8858</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="92">
+        <v>10</v>
+      </c>
+      <c r="F31" s="73">
+        <v>8.33</v>
+      </c>
+      <c r="G31" s="41">
+        <f t="shared" si="0"/>
+        <v>83.3</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="39">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="58">
+        <v>8859</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="92">
+        <v>10</v>
+      </c>
+      <c r="F32" s="73">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" si="0"/>
+        <v>100.3</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="39">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="58">
+        <v>8855</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="92">
+        <v>10</v>
+      </c>
+      <c r="F33" s="73">
+        <v>3.66</v>
+      </c>
+      <c r="G33" s="41">
+        <f t="shared" si="0"/>
+        <v>36.6</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="39">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="58">
+        <v>8856</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="92">
+        <v>10</v>
+      </c>
+      <c r="F34" s="73">
+        <v>3.66</v>
+      </c>
+      <c r="G34" s="41">
+        <f t="shared" si="0"/>
+        <v>36.6</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="39">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="121">
+        <v>1661</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="128">
+        <v>1</v>
+      </c>
+      <c r="F35" s="122">
+        <v>21.9</v>
+      </c>
+      <c r="G35" s="41">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="39">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="121">
+        <v>1657</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="128">
+        <v>1</v>
+      </c>
+      <c r="F36" s="122">
+        <v>9.6</v>
+      </c>
+      <c r="G36" s="41">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="39">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="121">
+        <v>1655</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="128">
+        <v>1</v>
+      </c>
+      <c r="F37" s="122">
+        <v>5.4</v>
+      </c>
+      <c r="G37" s="41">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="39">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="121">
+        <v>1660</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="128">
+        <v>1</v>
+      </c>
+      <c r="F38" s="122">
+        <v>11.74</v>
+      </c>
+      <c r="G38" s="41">
+        <f t="shared" si="0"/>
+        <v>11.74</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="39">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="121">
+        <v>1656</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="128">
+        <v>1</v>
+      </c>
+      <c r="F39" s="122">
+        <v>7.49</v>
+      </c>
+      <c r="G39" s="41">
+        <f t="shared" si="0"/>
+        <v>7.49</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="39">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="58">
+        <v>5809</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="92">
+        <v>1</v>
+      </c>
+      <c r="F40" s="73">
+        <v>17.14</v>
+      </c>
+      <c r="G40" s="41">
+        <f t="shared" si="0"/>
+        <v>17.14</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="39">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="58">
+        <v>5810</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="92">
+        <v>1</v>
+      </c>
+      <c r="F41" s="73">
+        <v>20.98</v>
+      </c>
+      <c r="G41" s="41">
+        <f t="shared" si="0"/>
+        <v>20.98</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="39">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="58">
+        <v>5816</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="92">
+        <v>1</v>
+      </c>
+      <c r="F42" s="73">
+        <v>24.84</v>
+      </c>
+      <c r="G42" s="41">
+        <f t="shared" si="0"/>
+        <v>24.84</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="39">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="58">
+        <v>5811</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="92">
+        <v>1</v>
+      </c>
+      <c r="F43" s="73">
+        <v>29.69</v>
+      </c>
+      <c r="G43" s="41">
+        <f t="shared" si="0"/>
+        <v>29.69</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="39">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="58">
+        <v>5815</v>
+      </c>
+      <c r="D44" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="127">
+        <v>10</v>
+      </c>
+      <c r="F44" s="73">
+        <v>4.29</v>
+      </c>
+      <c r="G44" s="41">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="39">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="58">
+        <v>5774</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="92">
+        <v>2</v>
+      </c>
+      <c r="F45" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G45" s="41">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="39">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="58">
+        <v>5775</v>
+      </c>
+      <c r="D46" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="92">
+        <v>2</v>
+      </c>
+      <c r="F46" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G46" s="41">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="39">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="58">
+        <v>5777</v>
+      </c>
+      <c r="D47" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="92">
+        <v>2</v>
+      </c>
+      <c r="F47" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G47" s="41">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="39">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="58">
+        <v>1736</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="92">
+        <v>1</v>
+      </c>
+      <c r="F48" s="73">
+        <v>19.63</v>
+      </c>
+      <c r="G48" s="41">
+        <f t="shared" si="0"/>
+        <v>19.63</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="39">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="58">
+        <v>9298</v>
+      </c>
+      <c r="D49" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="92">
+        <v>5</v>
+      </c>
+      <c r="F49" s="73">
+        <v>3.71</v>
+      </c>
+      <c r="G49" s="41">
+        <f t="shared" si="0"/>
+        <v>18.55</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="39">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="58">
+        <v>9299</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="92">
+        <v>5</v>
+      </c>
+      <c r="F50" s="73">
+        <v>4.46</v>
+      </c>
+      <c r="G50" s="41">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="39">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="58">
+        <v>5737</v>
+      </c>
+      <c r="D51" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="94">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F51" s="95">
+        <v>1995</v>
+      </c>
+      <c r="G51" s="41">
+        <f t="shared" si="0"/>
+        <v>5.9850000000000003</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="39">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="58">
+        <v>5808</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="92">
+        <v>10</v>
+      </c>
+      <c r="F52" s="73">
+        <v>3.8</v>
+      </c>
+      <c r="G52" s="41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="39">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="58">
+        <v>8862</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="92">
+        <v>2</v>
+      </c>
+      <c r="F53" s="73">
+        <v>4.66</v>
+      </c>
+      <c r="G53" s="41">
+        <f t="shared" si="0"/>
+        <v>9.32</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="39">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="58">
+        <v>8864</v>
+      </c>
+      <c r="D54" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="92">
+        <v>2</v>
+      </c>
+      <c r="F54" s="73">
+        <v>5.88</v>
+      </c>
+      <c r="G54" s="41">
+        <f t="shared" si="0"/>
+        <v>11.76</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="39">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="58">
+        <v>9237</v>
+      </c>
+      <c r="D55" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="92">
+        <v>2</v>
+      </c>
+      <c r="F55" s="73">
+        <v>94</v>
+      </c>
+      <c r="G55" s="41">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="39">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="58">
+        <v>6889</v>
+      </c>
+      <c r="D56" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="92">
+        <v>2</v>
+      </c>
+      <c r="F56" s="73">
+        <v>11.12</v>
+      </c>
+      <c r="G56" s="41">
+        <f t="shared" si="0"/>
+        <v>22.24</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="58">
+        <v>6905</v>
+      </c>
+      <c r="D57" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="92">
+        <v>2</v>
+      </c>
+      <c r="F57" s="73">
+        <v>11.64</v>
+      </c>
+      <c r="G57" s="41">
+        <f t="shared" si="0"/>
+        <v>23.28</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="39">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="58">
+        <v>6892</v>
+      </c>
+      <c r="D58" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="92">
+        <v>2</v>
+      </c>
+      <c r="F58" s="73">
+        <v>12.06</v>
+      </c>
+      <c r="G58" s="41">
+        <f t="shared" si="0"/>
+        <v>24.12</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="39">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="58">
+        <v>6902</v>
+      </c>
+      <c r="D59" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="92">
+        <v>2</v>
+      </c>
+      <c r="F59" s="73">
+        <v>16.87</v>
+      </c>
+      <c r="G59" s="41">
+        <f t="shared" si="0"/>
+        <v>33.74</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="39">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="58">
+        <v>6899</v>
+      </c>
+      <c r="D60" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="92">
+        <v>2</v>
+      </c>
+      <c r="F60" s="73">
+        <v>11.13</v>
+      </c>
+      <c r="G60" s="41">
+        <f t="shared" si="0"/>
+        <v>22.26</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="39">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="58">
+        <v>6895</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="92">
+        <v>2</v>
+      </c>
+      <c r="F61" s="73">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G61" s="41">
+        <f t="shared" si="0"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="39">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="58">
+        <v>6894</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="92">
+        <v>2</v>
+      </c>
+      <c r="F62" s="73">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G62" s="41">
+        <f t="shared" si="0"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="39">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="58">
+        <v>6896</v>
+      </c>
+      <c r="D63" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="92">
+        <v>2</v>
+      </c>
+      <c r="F63" s="73">
+        <v>12.42</v>
+      </c>
+      <c r="G63" s="41">
+        <f t="shared" si="0"/>
+        <v>24.84</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="39">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="58">
+        <v>9756</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="97">
+        <v>2.7</v>
+      </c>
+      <c r="F64" s="73">
+        <v>271.63</v>
+      </c>
+      <c r="G64" s="41">
+        <v>733.41</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="39">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="58">
+        <v>2446</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="92">
+        <v>2</v>
+      </c>
+      <c r="F65" s="73">
+        <v>5.45</v>
+      </c>
+      <c r="G65" s="41">
+        <f t="shared" si="0"/>
+        <v>10.9</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="39">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="19">
+        <v>3921</v>
+      </c>
+      <c r="D66" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="72">
+        <v>2</v>
+      </c>
+      <c r="F66" s="122">
+        <v>2.91</v>
+      </c>
+      <c r="G66" s="41">
+        <f t="shared" si="0"/>
+        <v>5.82</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="39">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="19">
+        <v>9676</v>
+      </c>
+      <c r="D67" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="72">
+        <v>2</v>
+      </c>
+      <c r="F67" s="122">
+        <v>3.26</v>
+      </c>
+      <c r="G67" s="41">
+        <f t="shared" si="0"/>
+        <v>6.52</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="39">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B68" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" s="19">
+        <v>3920</v>
+      </c>
+      <c r="D68" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="72">
+        <v>2</v>
+      </c>
+      <c r="F68" s="122">
+        <v>3.63</v>
+      </c>
+      <c r="G68" s="41">
+        <f t="shared" si="0"/>
+        <v>7.26</v>
+      </c>
+      <c r="H68" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="39">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" s="19">
+        <v>6912</v>
+      </c>
+      <c r="D69" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="72">
+        <v>2</v>
+      </c>
+      <c r="F69" s="122">
+        <v>5.34</v>
+      </c>
+      <c r="G69" s="41">
+        <f t="shared" si="0"/>
+        <v>10.68</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="39">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="58">
+        <v>7336</v>
+      </c>
+      <c r="D70" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="92">
+        <v>1</v>
+      </c>
+      <c r="F70" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="G70" s="41">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="39">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="58">
+        <v>7337</v>
+      </c>
+      <c r="D71" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="92">
+        <v>1</v>
+      </c>
+      <c r="F71" s="73">
+        <v>6.56</v>
+      </c>
+      <c r="G71" s="41">
+        <f t="shared" si="0"/>
+        <v>6.56</v>
+      </c>
+      <c r="H71" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="39">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="58">
+        <v>6627</v>
+      </c>
+      <c r="D72" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="92">
+        <v>1</v>
+      </c>
+      <c r="F72" s="73">
+        <v>3.58</v>
+      </c>
+      <c r="G72" s="41">
+        <f t="shared" si="0"/>
+        <v>3.58</v>
+      </c>
+      <c r="H72" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="39">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B73" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="58">
+        <v>6628</v>
+      </c>
+      <c r="D73" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="92">
+        <v>1</v>
+      </c>
+      <c r="F73" s="73">
+        <v>5.16</v>
+      </c>
+      <c r="G73" s="41">
+        <f t="shared" si="0"/>
+        <v>5.16</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="39">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="58">
+        <v>6629</v>
+      </c>
+      <c r="D74" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="92">
+        <v>1</v>
+      </c>
+      <c r="F74" s="73">
+        <v>6</v>
+      </c>
+      <c r="G74" s="41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="39">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B75" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="58">
+        <v>6630</v>
+      </c>
+      <c r="D75" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="92">
+        <v>1</v>
+      </c>
+      <c r="F75" s="73">
+        <v>7.82</v>
+      </c>
+      <c r="G75" s="41">
+        <f t="shared" si="0"/>
+        <v>7.82</v>
+      </c>
+      <c r="H75" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="39">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B76" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="58">
+        <v>6625</v>
+      </c>
+      <c r="D76" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="92">
+        <v>1</v>
+      </c>
+      <c r="F76" s="73">
+        <v>11.23</v>
+      </c>
+      <c r="G76" s="41">
+        <f t="shared" si="0"/>
+        <v>11.23</v>
+      </c>
+      <c r="H76" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="39">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="58">
+        <v>6622</v>
+      </c>
+      <c r="D77" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="92">
+        <v>1</v>
+      </c>
+      <c r="F77" s="73">
+        <v>1.66</v>
+      </c>
+      <c r="G77" s="41">
+        <f t="shared" si="0"/>
+        <v>1.66</v>
+      </c>
+      <c r="H77" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="39">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B78" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="58">
+        <v>1902</v>
+      </c>
+      <c r="D78" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="92">
+        <v>4</v>
+      </c>
+      <c r="F78" s="73">
+        <v>6.34</v>
+      </c>
+      <c r="G78" s="41">
+        <f t="shared" si="0"/>
+        <v>25.36</v>
+      </c>
+      <c r="H78" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="39">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="58">
+        <v>9300</v>
+      </c>
+      <c r="D79" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="92">
+        <v>1</v>
+      </c>
+      <c r="F79" s="73">
+        <v>16.39</v>
+      </c>
+      <c r="G79" s="41">
+        <f t="shared" si="0"/>
+        <v>16.39</v>
+      </c>
+      <c r="H79" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="39">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="58">
+        <v>6890</v>
+      </c>
+      <c r="D80" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="92">
+        <v>2</v>
+      </c>
+      <c r="F80" s="73">
+        <v>10.91</v>
+      </c>
+      <c r="G80" s="41">
+        <f t="shared" si="0"/>
+        <v>21.82</v>
+      </c>
+      <c r="H80" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="39">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="58">
+        <v>6900</v>
+      </c>
+      <c r="D81" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="92">
+        <v>2</v>
+      </c>
+      <c r="F81" s="73">
+        <v>10.91</v>
+      </c>
+      <c r="G81" s="41">
+        <f t="shared" si="0"/>
+        <v>21.82</v>
+      </c>
+      <c r="H81" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="39">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="58">
+        <v>6897</v>
+      </c>
+      <c r="D82" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="92">
+        <v>2</v>
+      </c>
+      <c r="F82" s="73">
+        <v>10.91</v>
+      </c>
+      <c r="G82" s="41">
+        <f t="shared" si="0"/>
+        <v>21.82</v>
+      </c>
+      <c r="H82" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="39">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="58">
+        <v>6638</v>
+      </c>
+      <c r="D83" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="92">
+        <v>1</v>
+      </c>
+      <c r="F83" s="73">
+        <v>10.15</v>
+      </c>
+      <c r="G83" s="41">
+        <f t="shared" si="0"/>
+        <v>10.15</v>
+      </c>
+      <c r="H83" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="39">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="58">
+        <v>6639</v>
+      </c>
+      <c r="D84" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="92">
+        <v>1</v>
+      </c>
+      <c r="F84" s="73">
+        <v>12</v>
+      </c>
+      <c r="G84" s="41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H84" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="39">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="58">
+        <v>6640</v>
+      </c>
+      <c r="D85" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="92">
+        <v>1</v>
+      </c>
+      <c r="F85" s="73">
+        <v>15.2</v>
+      </c>
+      <c r="G85" s="41">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+      <c r="H85" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="39">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B86" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="58">
+        <v>6641</v>
+      </c>
+      <c r="D86" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="92">
+        <v>1</v>
+      </c>
+      <c r="F86" s="73">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G86" s="41">
+        <f t="shared" ref="G86:G114" si="2">E86*F86</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H86" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="39">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="58">
+        <v>6644</v>
+      </c>
+      <c r="D87" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="92">
+        <v>1</v>
+      </c>
+      <c r="F87" s="73">
+        <v>13</v>
+      </c>
+      <c r="G87" s="41">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="39">
+        <f t="shared" ref="A88:A109" si="3">A87+1</f>
+        <v>69</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="58">
+        <v>6642</v>
+      </c>
+      <c r="D88" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="92">
+        <v>1</v>
+      </c>
+      <c r="F88" s="73">
+        <v>3.74</v>
+      </c>
+      <c r="G88" s="41">
+        <f t="shared" si="2"/>
+        <v>3.74</v>
+      </c>
+      <c r="H88" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="39">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B89" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="58">
+        <v>6643</v>
+      </c>
+      <c r="D89" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="92">
+        <v>1</v>
+      </c>
+      <c r="F89" s="73">
+        <v>5.99</v>
+      </c>
+      <c r="G89" s="41">
+        <f t="shared" si="2"/>
+        <v>5.99</v>
+      </c>
+      <c r="H89" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="39">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B90" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="58">
+        <v>6634</v>
+      </c>
+      <c r="D90" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="92">
+        <v>1</v>
+      </c>
+      <c r="F90" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="G90" s="41">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H90" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="43" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="39">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="58">
+        <v>6635</v>
+      </c>
+      <c r="D91" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="92">
+        <v>1</v>
+      </c>
+      <c r="F91" s="73">
+        <v>3.2</v>
+      </c>
+      <c r="G91" s="41">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="H91" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="39">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="58">
+        <v>7386</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="92">
+        <v>2</v>
+      </c>
+      <c r="F92" s="73">
+        <v>7</v>
+      </c>
+      <c r="G92" s="41">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H92" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="39">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="58">
+        <v>7387</v>
+      </c>
+      <c r="D93" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="92">
+        <v>2</v>
+      </c>
+      <c r="F93" s="73">
+        <v>7.6</v>
+      </c>
+      <c r="G93" s="41">
+        <f t="shared" si="2"/>
+        <v>15.2</v>
+      </c>
+      <c r="H93" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="39">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="58">
+        <v>7388</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="92">
+        <v>2</v>
+      </c>
+      <c r="F94" s="73">
+        <v>8.5</v>
+      </c>
+      <c r="G94" s="41">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H94" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="39">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="58">
+        <v>7389</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="92">
+        <v>2</v>
+      </c>
+      <c r="F95" s="73">
+        <v>6.5</v>
+      </c>
+      <c r="G95" s="41">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H95" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="39">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B96" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="58">
+        <v>7390</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="92">
+        <v>2</v>
+      </c>
+      <c r="F96" s="73">
+        <v>7</v>
+      </c>
+      <c r="G96" s="41">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H96" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="39">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="58">
+        <v>7391</v>
+      </c>
+      <c r="D97" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="92">
+        <v>2</v>
+      </c>
+      <c r="F97" s="73">
+        <v>6.9</v>
+      </c>
+      <c r="G97" s="41">
+        <f t="shared" si="2"/>
+        <v>13.8</v>
+      </c>
+      <c r="H97" s="44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="39">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="58">
+        <v>1905</v>
+      </c>
+      <c r="D98" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="92">
+        <v>2</v>
+      </c>
+      <c r="F98" s="73">
+        <v>8.86</v>
+      </c>
+      <c r="G98" s="41">
+        <f t="shared" si="2"/>
+        <v>17.72</v>
+      </c>
+      <c r="H98" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="39">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="58">
+        <v>8103</v>
+      </c>
+      <c r="D99" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" s="92">
+        <v>25</v>
+      </c>
+      <c r="F99" s="73">
+        <v>23.48</v>
+      </c>
+      <c r="G99" s="41">
+        <v>586.95000000000005</v>
+      </c>
+      <c r="H99" s="44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="39">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="58">
+        <v>3576</v>
+      </c>
+      <c r="D100" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="98">
+        <v>1</v>
+      </c>
+      <c r="F100" s="73">
+        <v>111.55</v>
+      </c>
+      <c r="G100" s="41">
+        <f t="shared" ref="G100:G109" si="4">E100*F100</f>
+        <v>111.55</v>
+      </c>
+      <c r="H100" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="39">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B101" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="58">
+        <v>3577</v>
+      </c>
+      <c r="D101" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="92">
+        <v>1</v>
+      </c>
+      <c r="F101" s="73">
+        <v>111.55</v>
+      </c>
+      <c r="G101" s="41">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="39">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="58">
+        <v>3578</v>
+      </c>
+      <c r="D102" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="92">
+        <v>1</v>
+      </c>
+      <c r="F102" s="73">
+        <v>120</v>
+      </c>
+      <c r="G102" s="41">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="H102" s="44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="43" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="39">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="58">
+        <v>6343</v>
+      </c>
+      <c r="D103" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="92">
+        <v>2</v>
+      </c>
+      <c r="F103" s="73">
+        <v>72.12</v>
+      </c>
+      <c r="G103" s="41">
+        <f t="shared" si="4"/>
+        <v>144.24</v>
+      </c>
+      <c r="H103" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="39">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B104" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="121">
+        <v>1664</v>
+      </c>
+      <c r="D104" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="120">
+        <v>1</v>
+      </c>
+      <c r="F104" s="122">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G104" s="41">
+        <f t="shared" si="4"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H104" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="39">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="121">
+        <v>1662</v>
+      </c>
+      <c r="D105" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="120">
+        <v>1</v>
+      </c>
+      <c r="F105" s="122">
+        <v>11</v>
+      </c>
+      <c r="G105" s="41">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H105" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="39">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B106" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" s="121">
+        <v>1667</v>
+      </c>
+      <c r="D106" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="120">
+        <v>1</v>
+      </c>
+      <c r="F106" s="122">
+        <v>60.41</v>
+      </c>
+      <c r="G106" s="41">
+        <f t="shared" si="4"/>
+        <v>60.41</v>
+      </c>
+      <c r="H106" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="39">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B107" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="121">
+        <v>1663</v>
+      </c>
+      <c r="D107" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="120">
+        <v>1</v>
+      </c>
+      <c r="F107" s="122">
+        <v>7.45</v>
+      </c>
+      <c r="G107" s="41">
+        <f t="shared" si="4"/>
+        <v>7.45</v>
+      </c>
+      <c r="H107" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="43" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="39">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B108" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" s="121">
+        <v>1665</v>
+      </c>
+      <c r="D108" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="120">
+        <v>1</v>
+      </c>
+      <c r="F108" s="122">
+        <v>6.9</v>
+      </c>
+      <c r="G108" s="41">
+        <f t="shared" si="4"/>
+        <v>6.9</v>
+      </c>
+      <c r="H108" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="43" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="39">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B109" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="121">
+        <v>3606</v>
+      </c>
+      <c r="D109" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="120">
+        <v>1</v>
+      </c>
+      <c r="F109" s="122">
+        <v>2.66</v>
+      </c>
+      <c r="G109" s="41">
+        <f t="shared" si="4"/>
+        <v>2.66</v>
+      </c>
+      <c r="H109" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="104" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="99"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="100">
+        <f>SUM(E20:E103)</f>
+        <v>383.70299999999997</v>
+      </c>
+      <c r="F110" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="102">
+        <v>7033.48</v>
+      </c>
+      <c r="H110" s="103"/>
+    </row>
+    <row r="111" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="106"/>
+      <c r="H112" s="107"/>
+    </row>
+    <row r="113" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="109"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="109"/>
+      <c r="G113" s="109"/>
+      <c r="H113" s="110"/>
+    </row>
+    <row r="114" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="106"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="106"/>
+      <c r="F114" s="106"/>
+      <c r="G114" s="106"/>
+      <c r="H114" s="107"/>
+    </row>
+    <row r="115" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="109"/>
+      <c r="E115" s="109"/>
+      <c r="F115" s="109"/>
+      <c r="G115" s="109"/>
+      <c r="H115" s="110"/>
+    </row>
+    <row r="116" spans="1:8" s="74" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="163" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="163"/>
+      <c r="E117" s="163"/>
+      <c r="F117" s="112"/>
+      <c r="G117" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" s="164"/>
+    </row>
+    <row r="118" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" s="161"/>
+    </row>
+    <row r="119" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" s="74"/>
+      <c r="H119" s="74"/>
+    </row>
+    <row r="120" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="163" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" s="163"/>
+      <c r="E120" s="163"/>
+      <c r="F120" s="112"/>
+      <c r="G120" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="164"/>
+    </row>
+    <row r="121" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="161"/>
+    </row>
+    <row r="122" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="163"/>
+      <c r="E122" s="163"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="164"/>
+    </row>
+    <row r="123" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C123" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" s="161"/>
+    </row>
+    <row r="124" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="163" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="163"/>
+      <c r="E124" s="163"/>
+      <c r="F124" s="112"/>
+      <c r="G124" s="164" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="164"/>
+    </row>
+    <row r="125" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="161"/>
+    </row>
+    <row r="126" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126" s="163" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" s="163"/>
+      <c r="E126" s="163"/>
+      <c r="F126" s="112"/>
+      <c r="G126" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="H126" s="164"/>
+    </row>
+    <row r="127" spans="1:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" s="161"/>
+    </row>
+    <row r="128" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="163" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="163"/>
+      <c r="E128" s="163"/>
+      <c r="F128" s="112"/>
+      <c r="G128" s="164" t="s">
+        <v>139</v>
+      </c>
+      <c r="H128" s="164"/>
+    </row>
+    <row r="129" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C129" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="161"/>
+    </row>
+    <row r="130" spans="2:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="74"/>
+      <c r="H130" s="74"/>
+    </row>
+    <row r="131" spans="2:8" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" s="165" t="s">
+        <v>195</v>
+      </c>
+      <c r="D131" s="163"/>
+      <c r="E131" s="163"/>
+      <c r="F131" s="112"/>
+      <c r="G131" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="H131" s="164"/>
+    </row>
+    <row r="132" spans="2:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="C132" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" s="161"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A19:H19" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <mergeCells count="34">
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="82" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="63" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>